--- a/book/[[ 입출금 내역서 ]]/계모임 장부1.xlsx
+++ b/book/[[ 입출금 내역서 ]]/계모임 장부1.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="현재_통합_문서"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\[[ 금전출납부 ]]\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\[[ 입출금 내역서 ]]\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E86137F2-68A8-4FCB-8AD8-1C18CEE99280}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88043324-104C-490B-A51D-8964F3076D97}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="570" yWindow="165" windowWidth="16830" windowHeight="15540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2175" yWindow="270" windowWidth="24270" windowHeight="15540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="회비집계" sheetId="7" r:id="rId1"/>
@@ -71,7 +71,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="111">
   <si>
     <t>일  자</t>
     <phoneticPr fontId="11" type="noConversion"/>
@@ -127,10 +127,6 @@
   </si>
   <si>
     <t>예/적금</t>
-  </si>
-  <si>
-    <t>여비교통비</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>회비(이월)</t>
@@ -223,9 +219,6 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>잡수입</t>
-  </si>
-  <si>
     <t>축의금</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -238,19 +231,11 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>유류대</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>실입금 회비</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>비고</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>잡비</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
@@ -451,6 +436,102 @@
   </si>
   <si>
     <t>허남희</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>가입비</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>기타수입</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>통신비</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>주유비</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>주차비</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>대중교통비</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>식료품비</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>외식비</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>가전</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>가구</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>주방</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>소모품</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>렌탈비</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>병원비</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>약국</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>학용품</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>교육비</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>행사비</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>회식비</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>여행비</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>관광비</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>교통비</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>잔치비</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>영화관람</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -1966,7 +2047,7 @@
     </xf>
     <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="211">
+  <cellXfs count="208">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2241,190 +2322,154 @@
     <xf numFmtId="188" fontId="28" fillId="0" borderId="67" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="88" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="93" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="20" fillId="0" borderId="90" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="20" fillId="0" borderId="52" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="187" fontId="16" fillId="0" borderId="92" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="187" fontId="16" fillId="0" borderId="53" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="183" fontId="20" fillId="0" borderId="91" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="183" fontId="20" fillId="0" borderId="54" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="16" fillId="0" borderId="90" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="16" fillId="0" borderId="52" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="179" fontId="20" fillId="0" borderId="43" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="187" fontId="16" fillId="0" borderId="41" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="183" fontId="20" fillId="0" borderId="42" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="16" fillId="0" borderId="43" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="16" fillId="0" borderId="40" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="20" fillId="0" borderId="43" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="179" fontId="20" fillId="0" borderId="40" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="187" fontId="16" fillId="0" borderId="41" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="187" fontId="16" fillId="0" borderId="38" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="183" fontId="20" fillId="0" borderId="42" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="183" fontId="20" fillId="0" borderId="39" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="16" fillId="0" borderId="43" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="16" fillId="0" borderId="40" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="188" fontId="32" fillId="0" borderId="73" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="188" fontId="32" fillId="0" borderId="71" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="188" fontId="32" fillId="0" borderId="72" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="73" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="71" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="74" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="70" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="71" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="72" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="66" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="64" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="68" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="186" fontId="28" fillId="0" borderId="66" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="186" fontId="28" fillId="0" borderId="64" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="186" fontId="28" fillId="0" borderId="68" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="188" fontId="28" fillId="0" borderId="66" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="188" fontId="28" fillId="0" borderId="64" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="188" fontId="28" fillId="0" borderId="68" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="28" fillId="0" borderId="66" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="28" fillId="0" borderId="64" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="28" fillId="0" borderId="87" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="17" fillId="11" borderId="78" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="17" fillId="11" borderId="79" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="11" borderId="80" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="11" borderId="81" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="11" borderId="79" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="186" fontId="28" fillId="0" borderId="75" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="186" fontId="28" fillId="0" borderId="76" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="186" fontId="28" fillId="0" borderId="77" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="188" fontId="28" fillId="0" borderId="75" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="188" fontId="28" fillId="0" borderId="76" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="188" fontId="28" fillId="0" borderId="77" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="186" fontId="28" fillId="0" borderId="65" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="186" fontId="28" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="186" fontId="28" fillId="0" borderId="67" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="188" fontId="28" fillId="0" borderId="65" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="188" fontId="28" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="188" fontId="28" fillId="0" borderId="67" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="186" fontId="32" fillId="0" borderId="73" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="186" fontId="32" fillId="0" borderId="71" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="186" fontId="32" fillId="0" borderId="72" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="28" fillId="0" borderId="65" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="28" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="28" fillId="0" borderId="69" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="11" borderId="82" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="65" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="67" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="28" fillId="0" borderId="75" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="28" fillId="0" borderId="76" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="28" fillId="0" borderId="84" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="184" fontId="32" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="186" fontId="16" fillId="0" borderId="32" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="186" fontId="16" fillId="0" borderId="55" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="186" fontId="16" fillId="0" borderId="23" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="186" fontId="16" fillId="0" borderId="33" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="186" fontId="16" fillId="0" borderId="24" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="16" fillId="0" borderId="25" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="16" fillId="0" borderId="24" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="4" fillId="5" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="4" fillId="5" borderId="59" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="4" fillId="5" borderId="60" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="186" fontId="31" fillId="0" borderId="61" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="186" fontId="31" fillId="0" borderId="62" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="186" fontId="31" fillId="0" borderId="63" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="17" fillId="10" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="17" fillId="10" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="17" fillId="10" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="30" fillId="8" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="30" fillId="8" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="30" fillId="8" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
@@ -2442,6 +2487,15 @@
     <xf numFmtId="0" fontId="28" fillId="0" borderId="68" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="186" fontId="28" fillId="0" borderId="65" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="186" fontId="28" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="186" fontId="28" fillId="0" borderId="67" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="83" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2457,133 +2511,151 @@
     <xf numFmtId="0" fontId="22" fillId="0" borderId="77" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="20" fillId="0" borderId="52" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="187" fontId="16" fillId="0" borderId="53" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="183" fontId="20" fillId="0" borderId="54" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="16" fillId="0" borderId="52" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="184" fontId="32" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="186" fontId="16" fillId="0" borderId="32" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="186" fontId="16" fillId="0" borderId="55" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="186" fontId="16" fillId="0" borderId="23" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="186" fontId="16" fillId="0" borderId="33" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="186" fontId="16" fillId="0" borderId="24" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="16" fillId="0" borderId="25" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="16" fillId="0" borderId="24" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="4" fillId="5" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="4" fillId="5" borderId="59" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="4" fillId="5" borderId="60" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="186" fontId="31" fillId="0" borderId="61" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="186" fontId="31" fillId="0" borderId="62" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="186" fontId="31" fillId="0" borderId="63" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="17" fillId="10" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="17" fillId="10" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="17" fillId="10" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="30" fillId="8" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="30" fillId="8" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="30" fillId="8" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="88" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="188" fontId="28" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="186" fontId="28" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="186" fontId="28" fillId="0" borderId="75" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="186" fontId="28" fillId="0" borderId="76" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="186" fontId="28" fillId="0" borderId="77" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="65" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="67" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="186" fontId="32" fillId="0" borderId="73" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="186" fontId="32" fillId="0" borderId="71" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="186" fontId="32" fillId="0" borderId="72" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="184" fontId="32" fillId="0" borderId="89" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="16" fillId="0" borderId="90" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="183" fontId="20" fillId="0" borderId="91" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="187" fontId="16" fillId="0" borderId="92" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="20" fillId="0" borderId="90" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="93" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="41" fontId="28" fillId="0" borderId="65" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="28" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="28" fillId="0" borderId="69" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="11" borderId="80" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="11" borderId="81" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="11" borderId="82" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="188" fontId="28" fillId="0" borderId="65" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="188" fontId="28" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="188" fontId="28" fillId="0" borderId="67" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="28" fillId="0" borderId="75" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="28" fillId="0" borderId="76" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="28" fillId="0" borderId="84" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="188" fontId="32" fillId="0" borderId="73" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="188" fontId="32" fillId="0" borderId="71" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="188" fontId="32" fillId="0" borderId="72" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="73" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="71" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="74" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="70" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="71" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="72" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="66" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="64" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="68" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="186" fontId="28" fillId="0" borderId="66" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="186" fontId="28" fillId="0" borderId="64" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="186" fontId="28" fillId="0" borderId="68" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="188" fontId="28" fillId="0" borderId="66" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="188" fontId="28" fillId="0" borderId="64" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="188" fontId="28" fillId="0" borderId="68" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="28" fillId="0" borderId="66" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="28" fillId="0" borderId="64" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="28" fillId="0" borderId="87" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="17" fillId="11" borderId="78" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="17" fillId="11" borderId="79" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="11" borderId="79" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="188" fontId="28" fillId="0" borderId="75" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="188" fontId="28" fillId="0" borderId="76" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="188" fontId="28" fillId="0" borderId="77" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2596,7 +2668,7 @@
     <cellStyle name="표준 2" xfId="4" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
     <cellStyle name="표준_현금출납부" xfId="2" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
   </cellStyles>
-  <dxfs count="60">
+  <dxfs count="12">
     <dxf>
       <fill>
         <patternFill>
@@ -2772,390 +2844,6 @@
         </patternFill>
       </fill>
     </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFCCFFFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF333399"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFCCFFFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF333399"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFCCFFFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF333399"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFCCFFFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF333399"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFCCFFFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF333399"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFCCFFFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF333399"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFCCFFFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF333399"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFCCFFFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF333399"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFCCFFFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF333399"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFCCFFFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF333399"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFCCFFFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF333399"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFCCFFFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF333399"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFCCFFFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF333399"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFCCFFFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF333399"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFCCFFFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF333399"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFCCFFFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF333399"/>
-        </patternFill>
-      </fill>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -3184,7 +2872,7 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp1.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Spin" dx="22" fmlaLink="$L$5" inc="31" max="30000" min="1" page="10" val="63"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Spin" dx="22" fmlaLink="$L$5" inc="31" max="30000" min="1" page="10" val="32"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3947,8 +3635,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:U75"/>
   <sheetViews>
-    <sheetView showGridLines="0" showZeros="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="U19" sqref="U19:U20"/>
+    <sheetView showGridLines="0" showZeros="0" tabSelected="1" topLeftCell="A46" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="K3" sqref="K3:L3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3962,50 +3650,50 @@
   <sheetData>
     <row r="1" spans="1:21" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="2" spans="1:21" ht="17.100000000000001" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="H2" s="178" t="s">
-        <v>35</v>
-      </c>
-      <c r="I2" s="179"/>
-      <c r="J2" s="180"/>
-      <c r="K2" s="184" t="s">
-        <v>32</v>
-      </c>
-      <c r="L2" s="180"/>
-      <c r="M2" s="168" t="s">
-        <v>25</v>
-      </c>
-      <c r="N2" s="168"/>
-      <c r="O2" s="169"/>
-      <c r="P2" s="187" t="s">
+      <c r="H2" s="123" t="s">
         <v>34</v>
       </c>
-      <c r="Q2" s="188"/>
-      <c r="R2" s="189"/>
+      <c r="I2" s="124"/>
+      <c r="J2" s="125"/>
+      <c r="K2" s="129" t="s">
+        <v>31</v>
+      </c>
+      <c r="L2" s="125"/>
+      <c r="M2" s="113" t="s">
+        <v>24</v>
+      </c>
+      <c r="N2" s="113"/>
+      <c r="O2" s="114"/>
+      <c r="P2" s="132" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q2" s="133"/>
+      <c r="R2" s="134"/>
     </row>
     <row r="3" spans="1:21" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="H3" s="181">
+      <c r="H3" s="126">
         <f ca="1">O8</f>
         <v>18</v>
       </c>
-      <c r="I3" s="182"/>
-      <c r="J3" s="183"/>
-      <c r="K3" s="185" t="str">
+      <c r="I3" s="127"/>
+      <c r="J3" s="128"/>
+      <c r="K3" s="130" t="str">
         <f ca="1">P9&amp;"개"</f>
-        <v>3개</v>
-      </c>
-      <c r="L3" s="186"/>
-      <c r="M3" s="176">
+        <v>-4개</v>
+      </c>
+      <c r="L3" s="131"/>
+      <c r="M3" s="121">
         <f ca="1">Q9</f>
-        <v>3</v>
-      </c>
-      <c r="N3" s="176"/>
-      <c r="O3" s="177"/>
-      <c r="P3" s="190">
+        <v>-4</v>
+      </c>
+      <c r="N3" s="121"/>
+      <c r="O3" s="122"/>
+      <c r="P3" s="135">
         <f>R9</f>
         <v>8</v>
       </c>
-      <c r="Q3" s="191"/>
-      <c r="R3" s="192"/>
+      <c r="Q3" s="136"/>
+      <c r="R3" s="137"/>
     </row>
     <row r="4" spans="1:21" ht="7.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="G4" s="42"/>
@@ -4023,52 +3711,52 @@
     </row>
     <row r="5" spans="1:21" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B5" s="78" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C5">
         <v>1</v>
       </c>
       <c r="L5" s="75">
-        <v>63</v>
-      </c>
-      <c r="M5" s="175">
+        <v>32</v>
+      </c>
+      <c r="M5" s="120">
         <f>DATE(2025,1,1)+L5</f>
-        <v>45721</v>
-      </c>
-      <c r="N5" s="175"/>
-      <c r="O5" s="175"/>
-      <c r="P5" s="175"/>
-      <c r="Q5" s="175"/>
-      <c r="R5" s="175"/>
+        <v>45690</v>
+      </c>
+      <c r="N5" s="120"/>
+      <c r="O5" s="120"/>
+      <c r="P5" s="120"/>
+      <c r="Q5" s="120"/>
+      <c r="R5" s="120"/>
     </row>
     <row r="6" spans="1:21" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B6" s="193" t="s">
-        <v>30</v>
-      </c>
-      <c r="C6" s="195" t="str">
+      <c r="B6" s="138" t="s">
+        <v>29</v>
+      </c>
+      <c r="C6" s="140" t="str">
         <f>YEAR(M5)&amp;"년 "&amp;"회비 입금 내역"</f>
         <v>2025년 회비 입금 내역</v>
       </c>
-      <c r="D6" s="196"/>
-      <c r="E6" s="196"/>
-      <c r="F6" s="196"/>
-      <c r="G6" s="196"/>
-      <c r="H6" s="196"/>
-      <c r="I6" s="196"/>
-      <c r="J6" s="196"/>
-      <c r="K6" s="196"/>
-      <c r="L6" s="196"/>
-      <c r="M6" s="196"/>
-      <c r="N6" s="196"/>
-      <c r="O6" s="197"/>
-      <c r="P6" s="198" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q6" s="199"/>
-      <c r="R6" s="200"/>
+      <c r="D6" s="141"/>
+      <c r="E6" s="141"/>
+      <c r="F6" s="141"/>
+      <c r="G6" s="141"/>
+      <c r="H6" s="141"/>
+      <c r="I6" s="141"/>
+      <c r="J6" s="141"/>
+      <c r="K6" s="141"/>
+      <c r="L6" s="141"/>
+      <c r="M6" s="141"/>
+      <c r="N6" s="141"/>
+      <c r="O6" s="142"/>
+      <c r="P6" s="143" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q6" s="144"/>
+      <c r="R6" s="145"/>
     </row>
     <row r="7" spans="1:21" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B7" s="194"/>
+      <c r="B7" s="139"/>
       <c r="C7" s="61">
         <v>1</v>
       </c>
@@ -4106,68 +3794,68 @@
         <v>12</v>
       </c>
       <c r="O7" s="72" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="P7" s="37" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q7" s="38" t="s">
         <v>23</v>
       </c>
-      <c r="Q7" s="38" t="s">
-        <v>24</v>
-      </c>
       <c r="R7" s="39" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="8" spans="1:21" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B8" s="49" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C8" s="64">
-        <f ca="1">SUMPRODUCT((MOD(ROW(C11:C24),2)=1)*C11:C24)</f>
+        <f t="shared" ref="C8:N8" ca="1" si="0">SUMPRODUCT((MOD(ROW(C11:C24),2)=1)*C11:C24)</f>
         <v>2</v>
       </c>
       <c r="D8" s="65">
-        <f ca="1">SUMPRODUCT((MOD(ROW(D11:D24),2)=1)*D11:D24)</f>
-        <v>8</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>16</v>
       </c>
       <c r="E8" s="65">
-        <f ca="1">SUMPRODUCT((MOD(ROW(E11:E24),2)=1)*E11:E24)</f>
-        <v>8</v>
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="F8" s="65">
-        <f>SUMPRODUCT((MOD(ROW(F11:F24),2)=1)*F11:F24)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G8" s="65">
-        <f>SUMPRODUCT((MOD(ROW(G11:G24),2)=1)*G11:G24)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H8" s="65">
-        <f>SUMPRODUCT((MOD(ROW(H11:H24),2)=1)*H11:H24)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I8" s="65">
-        <f>SUMPRODUCT((MOD(ROW(I11:I24),2)=1)*I11:I24)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="J8" s="65">
-        <f>SUMPRODUCT((MOD(ROW(J11:J24),2)=1)*J11:J24)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="K8" s="65">
-        <f>SUMPRODUCT((MOD(ROW(K11:K24),2)=1)*K11:K24)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="L8" s="65">
-        <f>SUMPRODUCT((MOD(ROW(L11:L24),2)=1)*L11:L24)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="M8" s="65">
-        <f>SUMPRODUCT((MOD(ROW(M11:M24),2)=1)*M11:M24)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="N8" s="66">
-        <f>SUMPRODUCT((MOD(ROW(N11:N24),2)=1)*N11:N24)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="O8" s="67">
@@ -4175,66 +3863,66 @@
         <v>18</v>
       </c>
       <c r="P8" s="40" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q8" s="36" t="s">
         <v>27</v>
       </c>
-      <c r="Q8" s="36" t="s">
-        <v>28</v>
-      </c>
       <c r="R8" s="41" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="T8" s="73"/>
     </row>
     <row r="9" spans="1:21" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B9" s="74" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C9" s="68">
-        <f ca="1">SUMPRODUCT((MOD(ROW(C11:C24),2)=0)*(C11:C24&gt;0)*1)</f>
+        <f t="shared" ref="C9:N9" ca="1" si="1">SUMPRODUCT((MOD(ROW(C11:C24),2)=0)*(C11:C24&gt;0)*1)</f>
         <v>1</v>
       </c>
       <c r="D9" s="69">
-        <f ca="1">SUMPRODUCT((MOD(ROW(D11:D24),2)=0)*(D11:D24&gt;0)*1)</f>
-        <v>2</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>4</v>
       </c>
       <c r="E9" s="69">
-        <f ca="1">SUMPRODUCT((MOD(ROW(E11:E24),2)=0)*(E11:E24&gt;0)*1)</f>
-        <v>2</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="F9" s="69">
-        <f>SUMPRODUCT((MOD(ROW(F11:F24),2)=0)*(F11:F24&gt;0)*1)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G9" s="69">
-        <f>SUMPRODUCT((MOD(ROW(G11:G24),2)=0)*(G11:G24&gt;0)*1)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H9" s="69">
-        <f>SUMPRODUCT((MOD(ROW(H11:H24),2)=0)*(H11:H24&gt;0)*1)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I9" s="69">
-        <f>SUMPRODUCT((MOD(ROW(I11:I24),2)=0)*(I11:I24&gt;0)*1)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J9" s="69">
-        <f>SUMPRODUCT((MOD(ROW(J11:J24),2)=0)*(J11:J24&gt;0)*1)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K9" s="69">
-        <f>SUMPRODUCT((MOD(ROW(K11:K24),2)=0)*(K11:K24&gt;0)*1)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="L9" s="69">
-        <f>SUMPRODUCT((MOD(ROW(L11:L24),2)=0)*(L11:L24&gt;0)*1)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="M9" s="69">
-        <f>SUMPRODUCT((MOD(ROW(M11:M24),2)=0)*(M11:M24&gt;0)*1)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="N9" s="70">
-        <f>SUMPRODUCT((MOD(ROW(N11:N24),2)=0)*(N11:N24&gt;0)*1)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="O9" s="71">
@@ -4243,11 +3931,11 @@
       </c>
       <c r="P9" s="50">
         <f ca="1">SUM(P11:P24)</f>
-        <v>3</v>
+        <v>-4</v>
       </c>
       <c r="Q9" s="51">
         <f ca="1">SUM(Q11:Q24)</f>
-        <v>3</v>
+        <v>-4</v>
       </c>
       <c r="R9" s="52">
         <f>SUM(R11:R24)</f>
@@ -4278,2899 +3966,2887 @@
       <c r="A11" s="76">
         <v>1</v>
       </c>
-      <c r="B11" s="96" t="str">
+      <c r="B11" s="108" t="str">
         <f>과목!A4</f>
         <v>김미영</v>
       </c>
       <c r="C11" s="46">
-        <f t="shared" ref="C11:N11" ca="1" si="0">IF(C$7&gt;MONTH($M$5),0,SUMPRODUCT((YEAR(일자)=YEAR($M$5))*(MONTH(일자)=C$7)*(계정과목=$B11)*수입)/10000)</f>
+        <f t="shared" ref="C11:N11" ca="1" si="2">IF(C$7&gt;MONTH($M$5),0,SUMPRODUCT((YEAR(일자)=YEAR($M$5))*(MONTH(일자)=C$7)*(계정과목=$B11)*수입)/10000)</f>
         <v>2</v>
       </c>
       <c r="D11" s="47">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="2"/>
         <v>0</v>
       </c>
       <c r="E11" s="47">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="F11" s="47">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G11" s="47">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H11" s="47">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I11" s="47">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J11" s="47">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K11" s="47">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="L11" s="47">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="M11" s="47">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="N11" s="48">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="O11" s="98">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="O11" s="109">
         <f ca="1">SUM(C11:N11)</f>
         <v>2</v>
       </c>
-      <c r="P11" s="100">
+      <c r="P11" s="110">
         <f ca="1">($C$5*MONTH($M$5)-O11)/$C$5</f>
-        <v>1</v>
-      </c>
-      <c r="Q11" s="102">
+        <v>0</v>
+      </c>
+      <c r="Q11" s="111">
         <f ca="1">P11*$C$5</f>
-        <v>1</v>
-      </c>
-      <c r="R11" s="104"/>
-      <c r="U11" s="147"/>
+        <v>0</v>
+      </c>
+      <c r="R11" s="112"/>
+      <c r="U11" s="107"/>
     </row>
     <row r="12" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="76">
         <v>2</v>
       </c>
-      <c r="B12" s="97"/>
+      <c r="B12" s="116"/>
       <c r="C12" s="56" cm="1">
         <f t="array" aca="1" ref="C12" ca="1">IF(C$7&gt;MONTH($M$5),0,SUMPRODUCT((YEAR(일자)=YEAR($M$5))*(MONTH(일자)=C$7)*(계정과목=$B11)*일자))</f>
         <v>45670</v>
       </c>
       <c r="D12" s="57">
-        <f t="shared" ref="C12:N12" ca="1" si="1">IF(D$7&gt;MONTH($M$5),0,SUMPRODUCT((YEAR(일자)=YEAR($M$5))*(MONTH(일자)=D$7)*(계정과목=$B11)*일자))</f>
+        <f t="shared" ref="D12:N12" ca="1" si="3">IF(D$7&gt;MONTH($M$5),0,SUMPRODUCT((YEAR(일자)=YEAR($M$5))*(MONTH(일자)=D$7)*(계정과목=$B11)*일자))</f>
         <v>0</v>
       </c>
       <c r="E12" s="57">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="F12" s="57">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="G12" s="57">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H12" s="57">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I12" s="57">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="J12" s="57">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="K12" s="57">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="L12" s="57">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="M12" s="57">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="N12" s="58">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="O12" s="99"/>
-      <c r="P12" s="101"/>
-      <c r="Q12" s="103"/>
-      <c r="R12" s="105"/>
-      <c r="U12" s="147"/>
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="O12" s="117"/>
+      <c r="P12" s="118"/>
+      <c r="Q12" s="119"/>
+      <c r="R12" s="115"/>
+      <c r="U12" s="107"/>
     </row>
     <row r="13" spans="1:21" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="76">
         <v>3</v>
       </c>
-      <c r="B13" s="96" t="str">
+      <c r="B13" s="108" t="str">
         <f>과목!A5</f>
         <v>김병철</v>
       </c>
       <c r="C13" s="46">
-        <f t="shared" ref="C13:N13" ca="1" si="2">IF(C$7&gt;MONTH($M$5),0,SUMPRODUCT((YEAR(일자)=YEAR($M$5))*(MONTH(일자)=C$7)*(계정과목=$B13)*수입)/10000)</f>
+        <f t="shared" ref="C13:N13" ca="1" si="4">IF(C$7&gt;MONTH($M$5),0,SUMPRODUCT((YEAR(일자)=YEAR($M$5))*(MONTH(일자)=C$7)*(계정과목=$B13)*수입)/10000)</f>
         <v>0</v>
       </c>
       <c r="D13" s="47">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="4"/>
         <v>4</v>
       </c>
       <c r="E13" s="47">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="F13" s="47">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="G13" s="47">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="H13" s="47">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="I13" s="47">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="J13" s="47">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="K13" s="47">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="L13" s="47">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="M13" s="47">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="N13" s="48">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="O13" s="98">
-        <f t="shared" ref="O13" ca="1" si="3">SUM(C13:N13)</f>
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="O13" s="109">
+        <f t="shared" ref="O13" ca="1" si="5">SUM(C13:N13)</f>
         <v>4</v>
       </c>
-      <c r="P13" s="100">
-        <f t="shared" ref="P13" ca="1" si="4">($C$5*MONTH($M$5)-O13)/$C$5</f>
-        <v>-1</v>
-      </c>
-      <c r="Q13" s="102">
-        <f t="shared" ref="Q13" ca="1" si="5">P13*$C$5</f>
-        <v>-1</v>
-      </c>
-      <c r="R13" s="104"/>
-      <c r="U13" s="147"/>
+      <c r="P13" s="110">
+        <f t="shared" ref="P13" ca="1" si="6">($C$5*MONTH($M$5)-O13)/$C$5</f>
+        <v>-2</v>
+      </c>
+      <c r="Q13" s="111">
+        <f t="shared" ref="Q13" ca="1" si="7">P13*$C$5</f>
+        <v>-2</v>
+      </c>
+      <c r="R13" s="112"/>
+      <c r="U13" s="107"/>
     </row>
     <row r="14" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="76">
         <v>4</v>
       </c>
-      <c r="B14" s="97"/>
+      <c r="B14" s="116"/>
       <c r="C14" s="56">
-        <f t="shared" ref="C14:N14" ca="1" si="6">IF(C$7&gt;MONTH($M$5),0,SUMPRODUCT((YEAR(일자)=YEAR($M$5))*(MONTH(일자)=C$7)*(계정과목=$B13)*일자))</f>
+        <f t="shared" ref="C14:N14" ca="1" si="8">IF(C$7&gt;MONTH($M$5),0,SUMPRODUCT((YEAR(일자)=YEAR($M$5))*(MONTH(일자)=C$7)*(계정과목=$B13)*일자))</f>
         <v>0</v>
       </c>
       <c r="D14" s="57">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="8"/>
         <v>45706</v>
       </c>
       <c r="E14" s="57">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="F14" s="57">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="G14" s="57">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="H14" s="57">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="I14" s="57">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="J14" s="57">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="K14" s="57">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="L14" s="57">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="M14" s="57">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="N14" s="57">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="O14" s="99"/>
-      <c r="P14" s="101"/>
-      <c r="Q14" s="103"/>
-      <c r="R14" s="105"/>
-      <c r="U14" s="147"/>
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="O14" s="117"/>
+      <c r="P14" s="118"/>
+      <c r="Q14" s="119"/>
+      <c r="R14" s="115"/>
+      <c r="U14" s="107"/>
     </row>
     <row r="15" spans="1:21" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="76">
         <v>5</v>
       </c>
-      <c r="B15" s="96" t="str">
+      <c r="B15" s="108" t="str">
         <f>과목!A6</f>
         <v>김상우</v>
       </c>
       <c r="C15" s="46">
-        <f t="shared" ref="C15:N15" ca="1" si="7">IF(C$7&gt;MONTH($M$5),0,SUMPRODUCT((YEAR(일자)=YEAR($M$5))*(MONTH(일자)=C$7)*(계정과목=$B15)*수입)/10000)</f>
+        <f t="shared" ref="C15:N15" ca="1" si="9">IF(C$7&gt;MONTH($M$5),0,SUMPRODUCT((YEAR(일자)=YEAR($M$5))*(MONTH(일자)=C$7)*(계정과목=$B15)*수입)/10000)</f>
         <v>0</v>
       </c>
       <c r="D15" s="47">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="9"/>
         <v>4</v>
       </c>
       <c r="E15" s="47">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="F15" s="47">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="G15" s="47">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="H15" s="47">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="I15" s="47">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="J15" s="47">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="K15" s="47">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="L15" s="47">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="M15" s="47">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="N15" s="48">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="O15" s="98">
-        <f t="shared" ref="O15" ca="1" si="8">SUM(C15:N15)</f>
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="O15" s="109">
+        <f t="shared" ref="O15" ca="1" si="10">SUM(C15:N15)</f>
         <v>4</v>
       </c>
-      <c r="P15" s="100">
-        <f t="shared" ref="P15" ca="1" si="9">($C$5*MONTH($M$5)-O15)/$C$5</f>
-        <v>-1</v>
-      </c>
-      <c r="Q15" s="102">
-        <f t="shared" ref="Q15" ca="1" si="10">P15*$C$5</f>
-        <v>-1</v>
-      </c>
-      <c r="R15" s="104">
+      <c r="P15" s="110">
+        <f t="shared" ref="P15" ca="1" si="11">($C$5*MONTH($M$5)-O15)/$C$5</f>
+        <v>-2</v>
+      </c>
+      <c r="Q15" s="111">
+        <f t="shared" ref="Q15" ca="1" si="12">P15*$C$5</f>
+        <v>-2</v>
+      </c>
+      <c r="R15" s="112">
         <v>2</v>
       </c>
-      <c r="U15" s="147"/>
+      <c r="U15" s="107"/>
     </row>
     <row r="16" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="76">
         <v>6</v>
       </c>
-      <c r="B16" s="97"/>
+      <c r="B16" s="116"/>
       <c r="C16" s="56">
-        <f t="shared" ref="C16:N16" ca="1" si="11">IF(C$7&gt;MONTH($M$5),0,SUMPRODUCT((YEAR(일자)=YEAR($M$5))*(MONTH(일자)=C$7)*(계정과목=$B15)*일자))</f>
+        <f t="shared" ref="C16:N16" ca="1" si="13">IF(C$7&gt;MONTH($M$5),0,SUMPRODUCT((YEAR(일자)=YEAR($M$5))*(MONTH(일자)=C$7)*(계정과목=$B15)*일자))</f>
         <v>0</v>
       </c>
       <c r="D16" s="57">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="13"/>
         <v>45716</v>
       </c>
       <c r="E16" s="57">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="F16" s="57">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="G16" s="57">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="H16" s="57">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="I16" s="57">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="J16" s="57">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="K16" s="57">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="L16" s="57">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="M16" s="57">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="N16" s="57">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="O16" s="99"/>
-      <c r="P16" s="101"/>
-      <c r="Q16" s="103"/>
-      <c r="R16" s="105"/>
-      <c r="U16" s="147"/>
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="O16" s="117"/>
+      <c r="P16" s="118"/>
+      <c r="Q16" s="119"/>
+      <c r="R16" s="115"/>
+      <c r="U16" s="107"/>
     </row>
     <row r="17" spans="1:21" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="76">
         <v>7</v>
       </c>
-      <c r="B17" s="96" t="str">
+      <c r="B17" s="108" t="str">
         <f>과목!A7</f>
         <v>김상철</v>
       </c>
       <c r="C17" s="46">
-        <f t="shared" ref="C17:N17" ca="1" si="12">IF(C$7&gt;MONTH($M$5),0,SUMPRODUCT((YEAR(일자)=YEAR($M$5))*(MONTH(일자)=C$7)*(계정과목=$B17)*수입)/10000)</f>
+        <f t="shared" ref="C17:N17" ca="1" si="14">IF(C$7&gt;MONTH($M$5),0,SUMPRODUCT((YEAR(일자)=YEAR($M$5))*(MONTH(일자)=C$7)*(계정과목=$B17)*수입)/10000)</f>
         <v>0</v>
       </c>
       <c r="D17" s="47">
-        <f t="shared" ca="1" si="12"/>
+        <f t="shared" ca="1" si="14"/>
         <v>0</v>
       </c>
       <c r="E17" s="47">
-        <f t="shared" ca="1" si="12"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="F17" s="47">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="G17" s="47">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="H17" s="47">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="I17" s="47">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="J17" s="47">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="K17" s="47">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="L17" s="47">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="M17" s="47">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="N17" s="48">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="O17" s="98">
-        <f t="shared" ref="O17" ca="1" si="13">SUM(C17:N17)</f>
-        <v>0</v>
-      </c>
-      <c r="P17" s="100">
-        <f t="shared" ref="P17" ca="1" si="14">($C$5*MONTH($M$5)-O17)/$C$5</f>
-        <v>3</v>
-      </c>
-      <c r="Q17" s="102">
-        <f t="shared" ref="Q17" ca="1" si="15">P17*$C$5</f>
-        <v>3</v>
-      </c>
-      <c r="R17" s="104">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="O17" s="109">
+        <f t="shared" ref="O17" ca="1" si="15">SUM(C17:N17)</f>
+        <v>0</v>
+      </c>
+      <c r="P17" s="110">
+        <f t="shared" ref="P17" ca="1" si="16">($C$5*MONTH($M$5)-O17)/$C$5</f>
+        <v>2</v>
+      </c>
+      <c r="Q17" s="111">
+        <f t="shared" ref="Q17" ca="1" si="17">P17*$C$5</f>
+        <v>2</v>
+      </c>
+      <c r="R17" s="112">
         <v>6</v>
       </c>
-      <c r="U17" s="147"/>
+      <c r="U17" s="107"/>
     </row>
     <row r="18" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="76">
         <v>8</v>
       </c>
-      <c r="B18" s="97"/>
+      <c r="B18" s="116"/>
       <c r="C18" s="56">
-        <f t="shared" ref="C18:N18" ca="1" si="16">IF(C$7&gt;MONTH($M$5),0,SUMPRODUCT((YEAR(일자)=YEAR($M$5))*(MONTH(일자)=C$7)*(계정과목=$B17)*일자))</f>
+        <f t="shared" ref="C18:N18" ca="1" si="18">IF(C$7&gt;MONTH($M$5),0,SUMPRODUCT((YEAR(일자)=YEAR($M$5))*(MONTH(일자)=C$7)*(계정과목=$B17)*일자))</f>
         <v>0</v>
       </c>
       <c r="D18" s="57">
-        <f t="shared" ca="1" si="16"/>
+        <f t="shared" ca="1" si="18"/>
         <v>0</v>
       </c>
       <c r="E18" s="57">
-        <f t="shared" ca="1" si="16"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="F18" s="57">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="G18" s="57">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="H18" s="57">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="I18" s="57">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="J18" s="57">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="K18" s="57">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="L18" s="57">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="M18" s="57">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="N18" s="57">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="O18" s="99"/>
-      <c r="P18" s="101"/>
-      <c r="Q18" s="103"/>
-      <c r="R18" s="105"/>
-      <c r="U18" s="147"/>
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="O18" s="117"/>
+      <c r="P18" s="118"/>
+      <c r="Q18" s="119"/>
+      <c r="R18" s="115"/>
+      <c r="U18" s="107"/>
     </row>
     <row r="19" spans="1:21" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="76">
         <v>9</v>
       </c>
-      <c r="B19" s="96" t="str">
+      <c r="B19" s="108" t="str">
         <f>과목!A8</f>
         <v>김이식</v>
       </c>
       <c r="C19" s="46">
-        <f t="shared" ref="C19:N19" ca="1" si="17">IF(C$7&gt;MONTH($M$5),0,SUMPRODUCT((YEAR(일자)=YEAR($M$5))*(MONTH(일자)=C$7)*(계정과목=$B19)*수입)/10000)</f>
+        <f t="shared" ref="C19:N19" ca="1" si="19">IF(C$7&gt;MONTH($M$5),0,SUMPRODUCT((YEAR(일자)=YEAR($M$5))*(MONTH(일자)=C$7)*(계정과목=$B19)*수입)/10000)</f>
         <v>0</v>
       </c>
       <c r="D19" s="47">
-        <f t="shared" ca="1" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="E19" s="47">
-        <f t="shared" ca="1" si="17"/>
+        <f t="shared" ca="1" si="19"/>
         <v>4</v>
       </c>
+      <c r="E19" s="47"/>
       <c r="F19" s="47">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="G19" s="47">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="H19" s="47">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="I19" s="47">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="J19" s="47">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="K19" s="47">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="L19" s="47">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="M19" s="47">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="N19" s="48">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="O19" s="98">
-        <f t="shared" ref="O19" ca="1" si="18">SUM(C19:N19)</f>
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="O19" s="109">
+        <f t="shared" ref="O19" ca="1" si="20">SUM(C19:N19)</f>
         <v>4</v>
       </c>
-      <c r="P19" s="100">
-        <f t="shared" ref="P19" ca="1" si="19">($C$5*MONTH($M$5)-O19)/$C$5</f>
-        <v>-1</v>
-      </c>
-      <c r="Q19" s="102">
-        <f t="shared" ref="Q19" ca="1" si="20">P19*$C$5</f>
-        <v>-1</v>
-      </c>
-      <c r="R19" s="104"/>
-      <c r="U19" s="147"/>
+      <c r="P19" s="110">
+        <f t="shared" ref="P19" ca="1" si="21">($C$5*MONTH($M$5)-O19)/$C$5</f>
+        <v>-2</v>
+      </c>
+      <c r="Q19" s="111">
+        <f t="shared" ref="Q19" ca="1" si="22">P19*$C$5</f>
+        <v>-2</v>
+      </c>
+      <c r="R19" s="112"/>
+      <c r="U19" s="107"/>
     </row>
     <row r="20" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="76">
         <v>10</v>
       </c>
-      <c r="B20" s="97"/>
+      <c r="B20" s="116"/>
       <c r="C20" s="56">
-        <f t="shared" ref="C20:N20" ca="1" si="21">IF(C$7&gt;MONTH($M$5),0,SUMPRODUCT((YEAR(일자)=YEAR($M$5))*(MONTH(일자)=C$7)*(계정과목=$B19)*일자))</f>
+        <f t="shared" ref="C20:N20" ca="1" si="23">IF(C$7&gt;MONTH($M$5),0,SUMPRODUCT((YEAR(일자)=YEAR($M$5))*(MONTH(일자)=C$7)*(계정과목=$B19)*일자))</f>
         <v>0</v>
       </c>
       <c r="D20" s="57">
-        <f t="shared" ca="1" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="E20" s="57">
-        <f t="shared" ca="1" si="21"/>
-        <v>45717</v>
-      </c>
+        <f t="shared" ca="1" si="23"/>
+        <v>45689</v>
+      </c>
+      <c r="E20" s="57"/>
       <c r="F20" s="57">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="G20" s="57">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="H20" s="57">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="I20" s="57">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="J20" s="57">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="K20" s="57">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="L20" s="57">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="M20" s="57">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="N20" s="57">
-        <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="O20" s="99"/>
-      <c r="P20" s="101"/>
-      <c r="Q20" s="103"/>
-      <c r="R20" s="105"/>
-      <c r="U20" s="147"/>
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="O20" s="117"/>
+      <c r="P20" s="118"/>
+      <c r="Q20" s="119"/>
+      <c r="R20" s="115"/>
+      <c r="U20" s="107"/>
     </row>
     <row r="21" spans="1:21" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="76"/>
-      <c r="B21" s="96" t="str">
+      <c r="B21" s="108" t="str">
         <f>과목!A9</f>
         <v>김춘배</v>
       </c>
       <c r="C21" s="46">
-        <f t="shared" ref="C21:N21" ca="1" si="22">IF(C$7&gt;MONTH($M$5),0,SUMPRODUCT((YEAR(일자)=YEAR($M$5))*(MONTH(일자)=C$7)*(계정과목=$B21)*수입)/10000)</f>
+        <f t="shared" ref="C21:N21" ca="1" si="24">IF(C$7&gt;MONTH($M$5),0,SUMPRODUCT((YEAR(일자)=YEAR($M$5))*(MONTH(일자)=C$7)*(계정과목=$B21)*수입)/10000)</f>
         <v>0</v>
       </c>
       <c r="D21" s="47">
-        <f t="shared" ca="1" si="22"/>
-        <v>0</v>
-      </c>
-      <c r="E21" s="47">
-        <f t="shared" ca="1" si="22"/>
+        <f t="shared" ca="1" si="24"/>
         <v>4</v>
       </c>
+      <c r="E21" s="47"/>
       <c r="F21" s="47">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="G21" s="47">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="H21" s="47">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="I21" s="47">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="J21" s="47">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="K21" s="47">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="L21" s="47">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="M21" s="47">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="N21" s="48">
-        <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
-      <c r="O21" s="98">
-        <f t="shared" ref="O21" ca="1" si="23">SUM(C21:N21)</f>
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="O21" s="109">
+        <f t="shared" ref="O21" ca="1" si="25">SUM(C21:N21)</f>
         <v>4</v>
       </c>
-      <c r="P21" s="100">
-        <f t="shared" ref="P21" ca="1" si="24">($C$5*MONTH($M$5)-O21)/$C$5</f>
-        <v>-1</v>
-      </c>
-      <c r="Q21" s="102">
-        <f t="shared" ref="Q21" ca="1" si="25">P21*$C$5</f>
-        <v>-1</v>
-      </c>
-      <c r="R21" s="104"/>
-      <c r="U21" s="147"/>
+      <c r="P21" s="110">
+        <f t="shared" ref="P21" ca="1" si="26">($C$5*MONTH($M$5)-O21)/$C$5</f>
+        <v>-2</v>
+      </c>
+      <c r="Q21" s="111">
+        <f t="shared" ref="Q21" ca="1" si="27">P21*$C$5</f>
+        <v>-2</v>
+      </c>
+      <c r="R21" s="112"/>
+      <c r="U21" s="107"/>
     </row>
     <row r="22" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="76"/>
-      <c r="B22" s="97"/>
+      <c r="B22" s="116"/>
       <c r="C22" s="56">
-        <f t="shared" ref="C22:N22" ca="1" si="26">IF(C$7&gt;MONTH($M$5),0,SUMPRODUCT((YEAR(일자)=YEAR($M$5))*(MONTH(일자)=C$7)*(계정과목=$B21)*일자))</f>
+        <f t="shared" ref="C22:N22" ca="1" si="28">IF(C$7&gt;MONTH($M$5),0,SUMPRODUCT((YEAR(일자)=YEAR($M$5))*(MONTH(일자)=C$7)*(계정과목=$B21)*일자))</f>
         <v>0</v>
       </c>
       <c r="D22" s="57">
-        <f t="shared" ca="1" si="26"/>
-        <v>0</v>
-      </c>
-      <c r="E22" s="57">
-        <f t="shared" ca="1" si="26"/>
-        <v>45718</v>
-      </c>
+        <f t="shared" ca="1" si="28"/>
+        <v>45690</v>
+      </c>
+      <c r="E22" s="57"/>
       <c r="F22" s="57">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="G22" s="57">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="H22" s="57">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="I22" s="57">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="J22" s="57">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="K22" s="57">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="L22" s="57">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="M22" s="57">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="N22" s="57">
-        <f t="shared" si="26"/>
-        <v>0</v>
-      </c>
-      <c r="O22" s="99"/>
-      <c r="P22" s="101"/>
-      <c r="Q22" s="103"/>
-      <c r="R22" s="105"/>
-      <c r="U22" s="147"/>
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="O22" s="117"/>
+      <c r="P22" s="118"/>
+      <c r="Q22" s="119"/>
+      <c r="R22" s="115"/>
+      <c r="U22" s="107"/>
     </row>
     <row r="23" spans="1:21" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="76"/>
-      <c r="B23" s="96" t="str">
+      <c r="B23" s="108" t="str">
         <f>과목!A10</f>
         <v>라찬숙</v>
       </c>
       <c r="C23" s="46">
-        <f t="shared" ref="C23:N43" ca="1" si="27">IF(C$7&gt;MONTH($M$5),0,SUMPRODUCT((YEAR(일자)=YEAR($M$5))*(MONTH(일자)=C$7)*(계정과목=$B23)*수입)/10000)</f>
+        <f t="shared" ref="C23:N43" ca="1" si="29">IF(C$7&gt;MONTH($M$5),0,SUMPRODUCT((YEAR(일자)=YEAR($M$5))*(MONTH(일자)=C$7)*(계정과목=$B23)*수입)/10000)</f>
         <v>0</v>
       </c>
       <c r="D23" s="47">
-        <f t="shared" ca="1" si="27"/>
+        <f t="shared" ca="1" si="29"/>
         <v>0</v>
       </c>
       <c r="E23" s="47">
-        <f t="shared" ca="1" si="27"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="F23" s="47">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="G23" s="47">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="H23" s="47">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="I23" s="47">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="J23" s="47">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="K23" s="47">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="L23" s="47">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="M23" s="47">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="N23" s="48">
-        <f t="shared" si="27"/>
-        <v>0</v>
-      </c>
-      <c r="O23" s="98">
-        <f t="shared" ref="O23" ca="1" si="28">SUM(C23:N23)</f>
-        <v>0</v>
-      </c>
-      <c r="P23" s="100">
-        <f t="shared" ref="P23" ca="1" si="29">($C$5*MONTH($M$5)-O23)/$C$5</f>
-        <v>3</v>
-      </c>
-      <c r="Q23" s="102">
-        <f t="shared" ref="Q23" ca="1" si="30">P23*$C$5</f>
-        <v>3</v>
-      </c>
-      <c r="R23" s="104"/>
-      <c r="U23" s="147"/>
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+      <c r="O23" s="109">
+        <f t="shared" ref="O23" ca="1" si="30">SUM(C23:N23)</f>
+        <v>0</v>
+      </c>
+      <c r="P23" s="110">
+        <f t="shared" ref="P23" ca="1" si="31">($C$5*MONTH($M$5)-O23)/$C$5</f>
+        <v>2</v>
+      </c>
+      <c r="Q23" s="111">
+        <f t="shared" ref="Q23" ca="1" si="32">P23*$C$5</f>
+        <v>2</v>
+      </c>
+      <c r="R23" s="112"/>
+      <c r="U23" s="107"/>
     </row>
     <row r="24" spans="1:21" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A24" s="76"/>
-      <c r="B24" s="170"/>
+      <c r="B24" s="98"/>
       <c r="C24" s="59">
-        <f t="shared" ref="C24:N24" ca="1" si="31">IF(C$7&gt;MONTH($M$5),0,SUMPRODUCT((YEAR(일자)=YEAR($M$5))*(MONTH(일자)=C$7)*(계정과목=$B23)*일자))</f>
+        <f t="shared" ref="C24:N24" ca="1" si="33">IF(C$7&gt;MONTH($M$5),0,SUMPRODUCT((YEAR(일자)=YEAR($M$5))*(MONTH(일자)=C$7)*(계정과목=$B23)*일자))</f>
         <v>0</v>
       </c>
       <c r="D24" s="60">
-        <f t="shared" ca="1" si="31"/>
+        <f t="shared" ca="1" si="33"/>
         <v>0</v>
       </c>
       <c r="E24" s="60">
-        <f t="shared" ca="1" si="31"/>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="F24" s="60">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="G24" s="60">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="H24" s="60">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="I24" s="60">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="J24" s="60">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="K24" s="60">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="L24" s="60">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="M24" s="60">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="N24" s="60">
-        <f t="shared" si="31"/>
-        <v>0</v>
-      </c>
-      <c r="O24" s="171"/>
-      <c r="P24" s="172"/>
-      <c r="Q24" s="173"/>
-      <c r="R24" s="174"/>
-      <c r="U24" s="147"/>
+        <f t="shared" si="33"/>
+        <v>0</v>
+      </c>
+      <c r="O24" s="100"/>
+      <c r="P24" s="102"/>
+      <c r="Q24" s="104"/>
+      <c r="R24" s="106"/>
+      <c r="U24" s="107"/>
     </row>
     <row r="25" spans="1:21" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="76"/>
-      <c r="B25" s="210" t="str">
+      <c r="B25" s="97" t="str">
         <f>과목!A11</f>
         <v>박건용</v>
       </c>
       <c r="C25" s="46">
-        <f t="shared" ca="1" si="27"/>
+        <f t="shared" ca="1" si="29"/>
         <v>0</v>
       </c>
       <c r="D25" s="47">
-        <f t="shared" ca="1" si="27"/>
+        <f t="shared" ca="1" si="29"/>
         <v>0</v>
       </c>
       <c r="E25" s="47">
-        <f t="shared" ca="1" si="27"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="F25" s="47">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="G25" s="47">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="H25" s="47">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="I25" s="47">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="J25" s="47">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="K25" s="47">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="L25" s="47">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="M25" s="47">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="N25" s="48">
-        <f t="shared" si="27"/>
-        <v>0</v>
-      </c>
-      <c r="O25" s="209">
-        <f t="shared" ref="O25" ca="1" si="32">SUM(C25:N25)</f>
-        <v>0</v>
-      </c>
-      <c r="P25" s="208">
-        <f t="shared" ref="P25" ca="1" si="33">($C$5*MONTH($M$5)-O25)/$C$5</f>
-        <v>3</v>
-      </c>
-      <c r="Q25" s="207">
-        <f t="shared" ref="Q25" ca="1" si="34">P25*$C$5</f>
-        <v>3</v>
-      </c>
-      <c r="R25" s="206"/>
-      <c r="U25" s="147"/>
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+      <c r="O25" s="99">
+        <f t="shared" ref="O25" ca="1" si="34">SUM(C25:N25)</f>
+        <v>0</v>
+      </c>
+      <c r="P25" s="101">
+        <f t="shared" ref="P25" ca="1" si="35">($C$5*MONTH($M$5)-O25)/$C$5</f>
+        <v>2</v>
+      </c>
+      <c r="Q25" s="103">
+        <f t="shared" ref="Q25" ca="1" si="36">P25*$C$5</f>
+        <v>2</v>
+      </c>
+      <c r="R25" s="105"/>
+      <c r="U25" s="107"/>
     </row>
     <row r="26" spans="1:21" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A26" s="76"/>
-      <c r="B26" s="170"/>
+      <c r="B26" s="98"/>
       <c r="C26" s="59">
-        <f t="shared" ref="C26:N26" ca="1" si="35">IF(C$7&gt;MONTH($M$5),0,SUMPRODUCT((YEAR(일자)=YEAR($M$5))*(MONTH(일자)=C$7)*(계정과목=$B25)*일자))</f>
+        <f t="shared" ref="C26:N26" ca="1" si="37">IF(C$7&gt;MONTH($M$5),0,SUMPRODUCT((YEAR(일자)=YEAR($M$5))*(MONTH(일자)=C$7)*(계정과목=$B25)*일자))</f>
         <v>0</v>
       </c>
       <c r="D26" s="60">
-        <f t="shared" ca="1" si="35"/>
+        <f t="shared" ca="1" si="37"/>
         <v>0</v>
       </c>
       <c r="E26" s="60">
-        <f t="shared" ca="1" si="35"/>
+        <f t="shared" si="37"/>
         <v>0</v>
       </c>
       <c r="F26" s="60">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>0</v>
       </c>
       <c r="G26" s="60">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>0</v>
       </c>
       <c r="H26" s="60">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>0</v>
       </c>
       <c r="I26" s="60">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>0</v>
       </c>
       <c r="J26" s="60">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>0</v>
       </c>
       <c r="K26" s="60">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>0</v>
       </c>
       <c r="L26" s="60">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>0</v>
       </c>
       <c r="M26" s="60">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>0</v>
       </c>
       <c r="N26" s="60">
-        <f t="shared" si="35"/>
-        <v>0</v>
-      </c>
-      <c r="O26" s="171"/>
-      <c r="P26" s="172"/>
-      <c r="Q26" s="173"/>
-      <c r="R26" s="174"/>
-      <c r="U26" s="147"/>
+        <f t="shared" si="37"/>
+        <v>0</v>
+      </c>
+      <c r="O26" s="100"/>
+      <c r="P26" s="102"/>
+      <c r="Q26" s="104"/>
+      <c r="R26" s="106"/>
+      <c r="U26" s="107"/>
     </row>
     <row r="27" spans="1:21" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="76"/>
-      <c r="B27" s="96" t="str">
+      <c r="B27" s="108" t="str">
         <f>과목!A12</f>
         <v>박영미</v>
       </c>
       <c r="C27" s="46">
-        <f t="shared" ca="1" si="27"/>
+        <f t="shared" ca="1" si="29"/>
         <v>0</v>
       </c>
       <c r="D27" s="47">
-        <f t="shared" ca="1" si="27"/>
+        <f t="shared" ca="1" si="29"/>
         <v>0</v>
       </c>
       <c r="E27" s="47">
-        <f t="shared" ca="1" si="27"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="F27" s="47">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="G27" s="47">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="H27" s="47">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="I27" s="47">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="J27" s="47">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="K27" s="47">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="L27" s="47">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="M27" s="47">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="N27" s="48">
-        <f t="shared" si="27"/>
-        <v>0</v>
-      </c>
-      <c r="O27" s="98">
-        <f t="shared" ref="O27" ca="1" si="36">SUM(C27:N27)</f>
-        <v>0</v>
-      </c>
-      <c r="P27" s="100">
-        <f t="shared" ref="P27" ca="1" si="37">($C$5*MONTH($M$5)-O27)/$C$5</f>
-        <v>3</v>
-      </c>
-      <c r="Q27" s="102">
-        <f t="shared" ref="Q27" ca="1" si="38">P27*$C$5</f>
-        <v>3</v>
-      </c>
-      <c r="R27" s="104"/>
-      <c r="U27" s="147"/>
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+      <c r="O27" s="109">
+        <f t="shared" ref="O27" ca="1" si="38">SUM(C27:N27)</f>
+        <v>0</v>
+      </c>
+      <c r="P27" s="110">
+        <f t="shared" ref="P27" ca="1" si="39">($C$5*MONTH($M$5)-O27)/$C$5</f>
+        <v>2</v>
+      </c>
+      <c r="Q27" s="111">
+        <f t="shared" ref="Q27" ca="1" si="40">P27*$C$5</f>
+        <v>2</v>
+      </c>
+      <c r="R27" s="112"/>
+      <c r="U27" s="107"/>
     </row>
     <row r="28" spans="1:21" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A28" s="76"/>
-      <c r="B28" s="170"/>
+      <c r="B28" s="98"/>
       <c r="C28" s="59">
-        <f t="shared" ref="C28:N28" ca="1" si="39">IF(C$7&gt;MONTH($M$5),0,SUMPRODUCT((YEAR(일자)=YEAR($M$5))*(MONTH(일자)=C$7)*(계정과목=$B27)*일자))</f>
+        <f t="shared" ref="C28:N28" ca="1" si="41">IF(C$7&gt;MONTH($M$5),0,SUMPRODUCT((YEAR(일자)=YEAR($M$5))*(MONTH(일자)=C$7)*(계정과목=$B27)*일자))</f>
         <v>0</v>
       </c>
       <c r="D28" s="60">
-        <f t="shared" ca="1" si="39"/>
+        <f t="shared" ca="1" si="41"/>
         <v>0</v>
       </c>
       <c r="E28" s="60">
-        <f t="shared" ca="1" si="39"/>
+        <f t="shared" si="41"/>
         <v>0</v>
       </c>
       <c r="F28" s="60">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>0</v>
       </c>
       <c r="G28" s="60">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>0</v>
       </c>
       <c r="H28" s="60">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>0</v>
       </c>
       <c r="I28" s="60">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>0</v>
       </c>
       <c r="J28" s="60">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>0</v>
       </c>
       <c r="K28" s="60">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>0</v>
       </c>
       <c r="L28" s="60">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>0</v>
       </c>
       <c r="M28" s="60">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>0</v>
       </c>
       <c r="N28" s="60">
-        <f t="shared" si="39"/>
-        <v>0</v>
-      </c>
-      <c r="O28" s="171"/>
-      <c r="P28" s="172"/>
-      <c r="Q28" s="173"/>
-      <c r="R28" s="174"/>
-      <c r="U28" s="147"/>
+        <f t="shared" si="41"/>
+        <v>0</v>
+      </c>
+      <c r="O28" s="100"/>
+      <c r="P28" s="102"/>
+      <c r="Q28" s="104"/>
+      <c r="R28" s="106"/>
+      <c r="U28" s="107"/>
     </row>
     <row r="29" spans="1:21" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="76"/>
-      <c r="B29" s="96" t="str">
+      <c r="B29" s="108" t="str">
         <f>과목!A13</f>
         <v>백금순</v>
       </c>
       <c r="C29" s="46">
-        <f t="shared" ca="1" si="27"/>
+        <f t="shared" ca="1" si="29"/>
         <v>0</v>
       </c>
       <c r="D29" s="47">
-        <f t="shared" ca="1" si="27"/>
+        <f t="shared" ca="1" si="29"/>
         <v>0</v>
       </c>
       <c r="E29" s="47">
-        <f t="shared" ca="1" si="27"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="F29" s="47">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="G29" s="47">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="H29" s="47">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="I29" s="47">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="J29" s="47">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="K29" s="47">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="L29" s="47">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="M29" s="47">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="N29" s="48">
-        <f t="shared" si="27"/>
-        <v>0</v>
-      </c>
-      <c r="O29" s="98">
-        <f t="shared" ref="O29" ca="1" si="40">SUM(C29:N29)</f>
-        <v>0</v>
-      </c>
-      <c r="P29" s="100">
-        <f t="shared" ref="P29" ca="1" si="41">($C$5*MONTH($M$5)-O29)/$C$5</f>
-        <v>3</v>
-      </c>
-      <c r="Q29" s="102">
-        <f t="shared" ref="Q29" ca="1" si="42">P29*$C$5</f>
-        <v>3</v>
-      </c>
-      <c r="R29" s="104"/>
-      <c r="U29" s="147"/>
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+      <c r="O29" s="109">
+        <f t="shared" ref="O29" ca="1" si="42">SUM(C29:N29)</f>
+        <v>0</v>
+      </c>
+      <c r="P29" s="110">
+        <f t="shared" ref="P29" ca="1" si="43">($C$5*MONTH($M$5)-O29)/$C$5</f>
+        <v>2</v>
+      </c>
+      <c r="Q29" s="111">
+        <f t="shared" ref="Q29" ca="1" si="44">P29*$C$5</f>
+        <v>2</v>
+      </c>
+      <c r="R29" s="112"/>
+      <c r="U29" s="107"/>
     </row>
     <row r="30" spans="1:21" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A30" s="76"/>
-      <c r="B30" s="170"/>
+      <c r="B30" s="98"/>
       <c r="C30" s="59">
-        <f t="shared" ref="C30:N30" ca="1" si="43">IF(C$7&gt;MONTH($M$5),0,SUMPRODUCT((YEAR(일자)=YEAR($M$5))*(MONTH(일자)=C$7)*(계정과목=$B29)*일자))</f>
+        <f t="shared" ref="C30:N30" ca="1" si="45">IF(C$7&gt;MONTH($M$5),0,SUMPRODUCT((YEAR(일자)=YEAR($M$5))*(MONTH(일자)=C$7)*(계정과목=$B29)*일자))</f>
         <v>0</v>
       </c>
       <c r="D30" s="60">
-        <f t="shared" ca="1" si="43"/>
+        <f t="shared" ca="1" si="45"/>
         <v>0</v>
       </c>
       <c r="E30" s="60">
-        <f t="shared" ca="1" si="43"/>
+        <f t="shared" si="45"/>
         <v>0</v>
       </c>
       <c r="F30" s="60">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v>0</v>
       </c>
       <c r="G30" s="60">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v>0</v>
       </c>
       <c r="H30" s="60">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v>0</v>
       </c>
       <c r="I30" s="60">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v>0</v>
       </c>
       <c r="J30" s="60">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v>0</v>
       </c>
       <c r="K30" s="60">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v>0</v>
       </c>
       <c r="L30" s="60">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v>0</v>
       </c>
       <c r="M30" s="60">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v>0</v>
       </c>
       <c r="N30" s="60">
-        <f t="shared" si="43"/>
-        <v>0</v>
-      </c>
-      <c r="O30" s="171"/>
-      <c r="P30" s="172"/>
-      <c r="Q30" s="173"/>
-      <c r="R30" s="174"/>
-      <c r="U30" s="147"/>
+        <f t="shared" si="45"/>
+        <v>0</v>
+      </c>
+      <c r="O30" s="100"/>
+      <c r="P30" s="102"/>
+      <c r="Q30" s="104"/>
+      <c r="R30" s="106"/>
+      <c r="U30" s="107"/>
     </row>
     <row r="31" spans="1:21" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="76"/>
-      <c r="B31" s="96" t="str">
+      <c r="B31" s="108" t="str">
         <f>과목!A14</f>
         <v>백기성</v>
       </c>
       <c r="C31" s="46">
-        <f t="shared" ca="1" si="27"/>
+        <f t="shared" ca="1" si="29"/>
         <v>0</v>
       </c>
       <c r="D31" s="47">
-        <f t="shared" ca="1" si="27"/>
+        <f t="shared" ca="1" si="29"/>
         <v>0</v>
       </c>
       <c r="E31" s="47">
-        <f t="shared" ca="1" si="27"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="F31" s="47">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="G31" s="47">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="H31" s="47">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="I31" s="47">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="J31" s="47">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="K31" s="47">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="L31" s="47">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="M31" s="47">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="N31" s="48">
-        <f t="shared" si="27"/>
-        <v>0</v>
-      </c>
-      <c r="O31" s="98">
-        <f t="shared" ref="O31" ca="1" si="44">SUM(C31:N31)</f>
-        <v>0</v>
-      </c>
-      <c r="P31" s="100">
-        <f t="shared" ref="P31" ca="1" si="45">($C$5*MONTH($M$5)-O31)/$C$5</f>
-        <v>3</v>
-      </c>
-      <c r="Q31" s="102">
-        <f t="shared" ref="Q31" ca="1" si="46">P31*$C$5</f>
-        <v>3</v>
-      </c>
-      <c r="R31" s="104"/>
-      <c r="U31" s="147"/>
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+      <c r="O31" s="109">
+        <f t="shared" ref="O31" ca="1" si="46">SUM(C31:N31)</f>
+        <v>0</v>
+      </c>
+      <c r="P31" s="110">
+        <f t="shared" ref="P31" ca="1" si="47">($C$5*MONTH($M$5)-O31)/$C$5</f>
+        <v>2</v>
+      </c>
+      <c r="Q31" s="111">
+        <f t="shared" ref="Q31" ca="1" si="48">P31*$C$5</f>
+        <v>2</v>
+      </c>
+      <c r="R31" s="112"/>
+      <c r="U31" s="107"/>
     </row>
     <row r="32" spans="1:21" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A32" s="76"/>
-      <c r="B32" s="170"/>
+      <c r="B32" s="98"/>
       <c r="C32" s="59">
-        <f t="shared" ref="C32:N32" ca="1" si="47">IF(C$7&gt;MONTH($M$5),0,SUMPRODUCT((YEAR(일자)=YEAR($M$5))*(MONTH(일자)=C$7)*(계정과목=$B31)*일자))</f>
+        <f t="shared" ref="C32:N32" ca="1" si="49">IF(C$7&gt;MONTH($M$5),0,SUMPRODUCT((YEAR(일자)=YEAR($M$5))*(MONTH(일자)=C$7)*(계정과목=$B31)*일자))</f>
         <v>0</v>
       </c>
       <c r="D32" s="60">
-        <f t="shared" ca="1" si="47"/>
+        <f t="shared" ca="1" si="49"/>
         <v>0</v>
       </c>
       <c r="E32" s="60">
-        <f t="shared" ca="1" si="47"/>
+        <f t="shared" si="49"/>
         <v>0</v>
       </c>
       <c r="F32" s="60">
-        <f t="shared" si="47"/>
+        <f t="shared" si="49"/>
         <v>0</v>
       </c>
       <c r="G32" s="60">
-        <f t="shared" si="47"/>
+        <f t="shared" si="49"/>
         <v>0</v>
       </c>
       <c r="H32" s="60">
-        <f t="shared" si="47"/>
+        <f t="shared" si="49"/>
         <v>0</v>
       </c>
       <c r="I32" s="60">
-        <f t="shared" si="47"/>
+        <f t="shared" si="49"/>
         <v>0</v>
       </c>
       <c r="J32" s="60">
-        <f t="shared" si="47"/>
+        <f t="shared" si="49"/>
         <v>0</v>
       </c>
       <c r="K32" s="60">
-        <f t="shared" si="47"/>
+        <f t="shared" si="49"/>
         <v>0</v>
       </c>
       <c r="L32" s="60">
-        <f t="shared" si="47"/>
+        <f t="shared" si="49"/>
         <v>0</v>
       </c>
       <c r="M32" s="60">
-        <f t="shared" si="47"/>
+        <f t="shared" si="49"/>
         <v>0</v>
       </c>
       <c r="N32" s="60">
-        <f t="shared" si="47"/>
-        <v>0</v>
-      </c>
-      <c r="O32" s="171"/>
-      <c r="P32" s="172"/>
-      <c r="Q32" s="173"/>
-      <c r="R32" s="174"/>
-      <c r="U32" s="147"/>
+        <f t="shared" si="49"/>
+        <v>0</v>
+      </c>
+      <c r="O32" s="100"/>
+      <c r="P32" s="102"/>
+      <c r="Q32" s="104"/>
+      <c r="R32" s="106"/>
+      <c r="U32" s="107"/>
     </row>
     <row r="33" spans="1:21" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="76"/>
-      <c r="B33" s="96" t="str">
+      <c r="B33" s="108" t="str">
         <f>과목!A15</f>
         <v>백상숙</v>
       </c>
       <c r="C33" s="46">
-        <f t="shared" ca="1" si="27"/>
+        <f t="shared" ca="1" si="29"/>
         <v>0</v>
       </c>
       <c r="D33" s="47">
-        <f t="shared" ca="1" si="27"/>
+        <f t="shared" ca="1" si="29"/>
         <v>0</v>
       </c>
       <c r="E33" s="47">
-        <f t="shared" ca="1" si="27"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="F33" s="47">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="G33" s="47">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="H33" s="47">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="I33" s="47">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="J33" s="47">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="K33" s="47">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="L33" s="47">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="M33" s="47">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="N33" s="48">
-        <f t="shared" si="27"/>
-        <v>0</v>
-      </c>
-      <c r="O33" s="98">
-        <f t="shared" ref="O33" ca="1" si="48">SUM(C33:N33)</f>
-        <v>0</v>
-      </c>
-      <c r="P33" s="100">
-        <f t="shared" ref="P33" ca="1" si="49">($C$5*MONTH($M$5)-O33)/$C$5</f>
-        <v>3</v>
-      </c>
-      <c r="Q33" s="102">
-        <f t="shared" ref="Q33" ca="1" si="50">P33*$C$5</f>
-        <v>3</v>
-      </c>
-      <c r="R33" s="104"/>
-      <c r="U33" s="147"/>
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+      <c r="O33" s="109">
+        <f t="shared" ref="O33" ca="1" si="50">SUM(C33:N33)</f>
+        <v>0</v>
+      </c>
+      <c r="P33" s="110">
+        <f t="shared" ref="P33" ca="1" si="51">($C$5*MONTH($M$5)-O33)/$C$5</f>
+        <v>2</v>
+      </c>
+      <c r="Q33" s="111">
+        <f t="shared" ref="Q33" ca="1" si="52">P33*$C$5</f>
+        <v>2</v>
+      </c>
+      <c r="R33" s="112"/>
+      <c r="U33" s="107"/>
     </row>
     <row r="34" spans="1:21" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A34" s="76"/>
-      <c r="B34" s="170"/>
+      <c r="B34" s="98"/>
       <c r="C34" s="59">
-        <f t="shared" ref="C34:N34" ca="1" si="51">IF(C$7&gt;MONTH($M$5),0,SUMPRODUCT((YEAR(일자)=YEAR($M$5))*(MONTH(일자)=C$7)*(계정과목=$B33)*일자))</f>
+        <f t="shared" ref="C34:N34" ca="1" si="53">IF(C$7&gt;MONTH($M$5),0,SUMPRODUCT((YEAR(일자)=YEAR($M$5))*(MONTH(일자)=C$7)*(계정과목=$B33)*일자))</f>
         <v>0</v>
       </c>
       <c r="D34" s="60">
-        <f t="shared" ca="1" si="51"/>
+        <f t="shared" ca="1" si="53"/>
         <v>0</v>
       </c>
       <c r="E34" s="60">
-        <f t="shared" ca="1" si="51"/>
+        <f t="shared" si="53"/>
         <v>0</v>
       </c>
       <c r="F34" s="60">
-        <f t="shared" si="51"/>
+        <f t="shared" si="53"/>
         <v>0</v>
       </c>
       <c r="G34" s="60">
-        <f t="shared" si="51"/>
+        <f t="shared" si="53"/>
         <v>0</v>
       </c>
       <c r="H34" s="60">
-        <f t="shared" si="51"/>
+        <f t="shared" si="53"/>
         <v>0</v>
       </c>
       <c r="I34" s="60">
-        <f t="shared" si="51"/>
+        <f t="shared" si="53"/>
         <v>0</v>
       </c>
       <c r="J34" s="60">
-        <f t="shared" si="51"/>
+        <f t="shared" si="53"/>
         <v>0</v>
       </c>
       <c r="K34" s="60">
-        <f t="shared" si="51"/>
+        <f t="shared" si="53"/>
         <v>0</v>
       </c>
       <c r="L34" s="60">
-        <f t="shared" si="51"/>
+        <f t="shared" si="53"/>
         <v>0</v>
       </c>
       <c r="M34" s="60">
-        <f t="shared" si="51"/>
+        <f t="shared" si="53"/>
         <v>0</v>
       </c>
       <c r="N34" s="60">
-        <f t="shared" si="51"/>
-        <v>0</v>
-      </c>
-      <c r="O34" s="171"/>
-      <c r="P34" s="172"/>
-      <c r="Q34" s="173"/>
-      <c r="R34" s="174"/>
-      <c r="U34" s="147"/>
+        <f t="shared" si="53"/>
+        <v>0</v>
+      </c>
+      <c r="O34" s="100"/>
+      <c r="P34" s="102"/>
+      <c r="Q34" s="104"/>
+      <c r="R34" s="106"/>
+      <c r="U34" s="107"/>
     </row>
     <row r="35" spans="1:21" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="76"/>
-      <c r="B35" s="96" t="str">
+      <c r="B35" s="108" t="str">
         <f>과목!A16</f>
         <v>안호</v>
       </c>
       <c r="C35" s="46">
-        <f t="shared" ca="1" si="27"/>
+        <f t="shared" ca="1" si="29"/>
         <v>0</v>
       </c>
       <c r="D35" s="47">
-        <f t="shared" ca="1" si="27"/>
+        <f t="shared" ca="1" si="29"/>
         <v>0</v>
       </c>
       <c r="E35" s="47">
-        <f t="shared" ca="1" si="27"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="F35" s="47">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="G35" s="47">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="H35" s="47">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="I35" s="47">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="J35" s="47">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="K35" s="47">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="L35" s="47">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="M35" s="47">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="N35" s="48">
-        <f t="shared" si="27"/>
-        <v>0</v>
-      </c>
-      <c r="O35" s="98">
-        <f t="shared" ref="O35" ca="1" si="52">SUM(C35:N35)</f>
-        <v>0</v>
-      </c>
-      <c r="P35" s="100">
-        <f t="shared" ref="P35" ca="1" si="53">($C$5*MONTH($M$5)-O35)/$C$5</f>
-        <v>3</v>
-      </c>
-      <c r="Q35" s="102">
-        <f t="shared" ref="Q35" ca="1" si="54">P35*$C$5</f>
-        <v>3</v>
-      </c>
-      <c r="R35" s="104"/>
-      <c r="U35" s="147"/>
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+      <c r="O35" s="109">
+        <f t="shared" ref="O35" ca="1" si="54">SUM(C35:N35)</f>
+        <v>0</v>
+      </c>
+      <c r="P35" s="110">
+        <f t="shared" ref="P35" ca="1" si="55">($C$5*MONTH($M$5)-O35)/$C$5</f>
+        <v>2</v>
+      </c>
+      <c r="Q35" s="111">
+        <f t="shared" ref="Q35" ca="1" si="56">P35*$C$5</f>
+        <v>2</v>
+      </c>
+      <c r="R35" s="112"/>
+      <c r="U35" s="107"/>
     </row>
     <row r="36" spans="1:21" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A36" s="76"/>
-      <c r="B36" s="170"/>
+      <c r="B36" s="98"/>
       <c r="C36" s="59">
-        <f t="shared" ref="C36:N36" ca="1" si="55">IF(C$7&gt;MONTH($M$5),0,SUMPRODUCT((YEAR(일자)=YEAR($M$5))*(MONTH(일자)=C$7)*(계정과목=$B35)*일자))</f>
+        <f t="shared" ref="C36:N36" ca="1" si="57">IF(C$7&gt;MONTH($M$5),0,SUMPRODUCT((YEAR(일자)=YEAR($M$5))*(MONTH(일자)=C$7)*(계정과목=$B35)*일자))</f>
         <v>0</v>
       </c>
       <c r="D36" s="60">
-        <f t="shared" ca="1" si="55"/>
+        <f t="shared" ca="1" si="57"/>
         <v>0</v>
       </c>
       <c r="E36" s="60">
-        <f t="shared" ca="1" si="55"/>
+        <f t="shared" si="57"/>
         <v>0</v>
       </c>
       <c r="F36" s="60">
-        <f t="shared" si="55"/>
+        <f t="shared" si="57"/>
         <v>0</v>
       </c>
       <c r="G36" s="60">
-        <f t="shared" si="55"/>
+        <f t="shared" si="57"/>
         <v>0</v>
       </c>
       <c r="H36" s="60">
-        <f t="shared" si="55"/>
+        <f t="shared" si="57"/>
         <v>0</v>
       </c>
       <c r="I36" s="60">
-        <f t="shared" si="55"/>
+        <f t="shared" si="57"/>
         <v>0</v>
       </c>
       <c r="J36" s="60">
-        <f t="shared" si="55"/>
+        <f t="shared" si="57"/>
         <v>0</v>
       </c>
       <c r="K36" s="60">
-        <f t="shared" si="55"/>
+        <f t="shared" si="57"/>
         <v>0</v>
       </c>
       <c r="L36" s="60">
-        <f t="shared" si="55"/>
+        <f t="shared" si="57"/>
         <v>0</v>
       </c>
       <c r="M36" s="60">
-        <f t="shared" si="55"/>
+        <f t="shared" si="57"/>
         <v>0</v>
       </c>
       <c r="N36" s="60">
-        <f t="shared" si="55"/>
-        <v>0</v>
-      </c>
-      <c r="O36" s="171"/>
-      <c r="P36" s="172"/>
-      <c r="Q36" s="173"/>
-      <c r="R36" s="174"/>
-      <c r="U36" s="147"/>
+        <f t="shared" si="57"/>
+        <v>0</v>
+      </c>
+      <c r="O36" s="100"/>
+      <c r="P36" s="102"/>
+      <c r="Q36" s="104"/>
+      <c r="R36" s="106"/>
+      <c r="U36" s="107"/>
     </row>
     <row r="37" spans="1:21" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="76"/>
-      <c r="B37" s="96" t="str">
+      <c r="B37" s="108" t="str">
         <f>과목!A17</f>
         <v>유영식</v>
       </c>
       <c r="C37" s="46">
-        <f t="shared" ca="1" si="27"/>
+        <f t="shared" ca="1" si="29"/>
         <v>0</v>
       </c>
       <c r="D37" s="47">
-        <f t="shared" ca="1" si="27"/>
+        <f t="shared" ca="1" si="29"/>
         <v>0</v>
       </c>
       <c r="E37" s="47">
-        <f t="shared" ca="1" si="27"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="F37" s="47">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="G37" s="47">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="H37" s="47">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="I37" s="47">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="J37" s="47">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="K37" s="47">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="L37" s="47">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="M37" s="47">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="N37" s="48">
-        <f t="shared" si="27"/>
-        <v>0</v>
-      </c>
-      <c r="O37" s="98">
-        <f t="shared" ref="O37" ca="1" si="56">SUM(C37:N37)</f>
-        <v>0</v>
-      </c>
-      <c r="P37" s="100">
-        <f t="shared" ref="P37" ca="1" si="57">($C$5*MONTH($M$5)-O37)/$C$5</f>
-        <v>3</v>
-      </c>
-      <c r="Q37" s="102">
-        <f t="shared" ref="Q37" ca="1" si="58">P37*$C$5</f>
-        <v>3</v>
-      </c>
-      <c r="R37" s="104"/>
-      <c r="U37" s="147"/>
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+      <c r="O37" s="109">
+        <f t="shared" ref="O37" ca="1" si="58">SUM(C37:N37)</f>
+        <v>0</v>
+      </c>
+      <c r="P37" s="110">
+        <f t="shared" ref="P37" ca="1" si="59">($C$5*MONTH($M$5)-O37)/$C$5</f>
+        <v>2</v>
+      </c>
+      <c r="Q37" s="111">
+        <f t="shared" ref="Q37" ca="1" si="60">P37*$C$5</f>
+        <v>2</v>
+      </c>
+      <c r="R37" s="112"/>
+      <c r="U37" s="107"/>
     </row>
     <row r="38" spans="1:21" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A38" s="76"/>
-      <c r="B38" s="170"/>
+      <c r="B38" s="98"/>
       <c r="C38" s="59">
-        <f t="shared" ref="C38:N38" ca="1" si="59">IF(C$7&gt;MONTH($M$5),0,SUMPRODUCT((YEAR(일자)=YEAR($M$5))*(MONTH(일자)=C$7)*(계정과목=$B37)*일자))</f>
+        <f t="shared" ref="C38:N38" ca="1" si="61">IF(C$7&gt;MONTH($M$5),0,SUMPRODUCT((YEAR(일자)=YEAR($M$5))*(MONTH(일자)=C$7)*(계정과목=$B37)*일자))</f>
         <v>0</v>
       </c>
       <c r="D38" s="60">
-        <f t="shared" ca="1" si="59"/>
+        <f t="shared" ca="1" si="61"/>
         <v>0</v>
       </c>
       <c r="E38" s="60">
-        <f t="shared" ca="1" si="59"/>
+        <f t="shared" si="61"/>
         <v>0</v>
       </c>
       <c r="F38" s="60">
-        <f t="shared" si="59"/>
+        <f t="shared" si="61"/>
         <v>0</v>
       </c>
       <c r="G38" s="60">
-        <f t="shared" si="59"/>
+        <f t="shared" si="61"/>
         <v>0</v>
       </c>
       <c r="H38" s="60">
-        <f t="shared" si="59"/>
+        <f t="shared" si="61"/>
         <v>0</v>
       </c>
       <c r="I38" s="60">
-        <f t="shared" si="59"/>
+        <f t="shared" si="61"/>
         <v>0</v>
       </c>
       <c r="J38" s="60">
-        <f t="shared" si="59"/>
+        <f t="shared" si="61"/>
         <v>0</v>
       </c>
       <c r="K38" s="60">
-        <f t="shared" si="59"/>
+        <f t="shared" si="61"/>
         <v>0</v>
       </c>
       <c r="L38" s="60">
-        <f t="shared" si="59"/>
+        <f t="shared" si="61"/>
         <v>0</v>
       </c>
       <c r="M38" s="60">
-        <f t="shared" si="59"/>
+        <f t="shared" si="61"/>
         <v>0</v>
       </c>
       <c r="N38" s="60">
-        <f t="shared" si="59"/>
-        <v>0</v>
-      </c>
-      <c r="O38" s="171"/>
-      <c r="P38" s="172"/>
-      <c r="Q38" s="173"/>
-      <c r="R38" s="174"/>
-      <c r="U38" s="147"/>
+        <f t="shared" si="61"/>
+        <v>0</v>
+      </c>
+      <c r="O38" s="100"/>
+      <c r="P38" s="102"/>
+      <c r="Q38" s="104"/>
+      <c r="R38" s="106"/>
+      <c r="U38" s="107"/>
     </row>
     <row r="39" spans="1:21" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="76"/>
-      <c r="B39" s="96" t="str">
+      <c r="B39" s="108" t="str">
         <f>과목!A18</f>
         <v>전기성</v>
       </c>
       <c r="C39" s="46">
-        <f t="shared" ca="1" si="27"/>
+        <f t="shared" ca="1" si="29"/>
         <v>0</v>
       </c>
       <c r="D39" s="47">
-        <f t="shared" ca="1" si="27"/>
+        <f t="shared" ca="1" si="29"/>
         <v>0</v>
       </c>
       <c r="E39" s="47">
-        <f t="shared" ca="1" si="27"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="F39" s="47">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="G39" s="47">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="H39" s="47">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="I39" s="47">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="J39" s="47">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="K39" s="47">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="L39" s="47">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="M39" s="47">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="N39" s="48">
-        <f t="shared" si="27"/>
-        <v>0</v>
-      </c>
-      <c r="O39" s="98">
-        <f t="shared" ref="O39" ca="1" si="60">SUM(C39:N39)</f>
-        <v>0</v>
-      </c>
-      <c r="P39" s="100">
-        <f t="shared" ref="P39" ca="1" si="61">($C$5*MONTH($M$5)-O39)/$C$5</f>
-        <v>3</v>
-      </c>
-      <c r="Q39" s="102">
-        <f t="shared" ref="Q39" ca="1" si="62">P39*$C$5</f>
-        <v>3</v>
-      </c>
-      <c r="R39" s="104"/>
-      <c r="U39" s="147"/>
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+      <c r="O39" s="109">
+        <f t="shared" ref="O39" ca="1" si="62">SUM(C39:N39)</f>
+        <v>0</v>
+      </c>
+      <c r="P39" s="110">
+        <f t="shared" ref="P39" ca="1" si="63">($C$5*MONTH($M$5)-O39)/$C$5</f>
+        <v>2</v>
+      </c>
+      <c r="Q39" s="111">
+        <f t="shared" ref="Q39" ca="1" si="64">P39*$C$5</f>
+        <v>2</v>
+      </c>
+      <c r="R39" s="112"/>
+      <c r="U39" s="107"/>
     </row>
     <row r="40" spans="1:21" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A40" s="76"/>
-      <c r="B40" s="170"/>
+      <c r="B40" s="98"/>
       <c r="C40" s="59">
-        <f t="shared" ref="C40:N40" ca="1" si="63">IF(C$7&gt;MONTH($M$5),0,SUMPRODUCT((YEAR(일자)=YEAR($M$5))*(MONTH(일자)=C$7)*(계정과목=$B39)*일자))</f>
+        <f t="shared" ref="C40:N40" ca="1" si="65">IF(C$7&gt;MONTH($M$5),0,SUMPRODUCT((YEAR(일자)=YEAR($M$5))*(MONTH(일자)=C$7)*(계정과목=$B39)*일자))</f>
         <v>0</v>
       </c>
       <c r="D40" s="60">
-        <f t="shared" ca="1" si="63"/>
+        <f t="shared" ca="1" si="65"/>
         <v>0</v>
       </c>
       <c r="E40" s="60">
-        <f t="shared" ca="1" si="63"/>
+        <f t="shared" si="65"/>
         <v>0</v>
       </c>
       <c r="F40" s="60">
-        <f t="shared" si="63"/>
+        <f t="shared" si="65"/>
         <v>0</v>
       </c>
       <c r="G40" s="60">
-        <f t="shared" si="63"/>
+        <f t="shared" si="65"/>
         <v>0</v>
       </c>
       <c r="H40" s="60">
-        <f t="shared" si="63"/>
+        <f t="shared" si="65"/>
         <v>0</v>
       </c>
       <c r="I40" s="60">
-        <f t="shared" si="63"/>
+        <f t="shared" si="65"/>
         <v>0</v>
       </c>
       <c r="J40" s="60">
-        <f t="shared" si="63"/>
+        <f t="shared" si="65"/>
         <v>0</v>
       </c>
       <c r="K40" s="60">
-        <f t="shared" si="63"/>
+        <f t="shared" si="65"/>
         <v>0</v>
       </c>
       <c r="L40" s="60">
-        <f t="shared" si="63"/>
+        <f t="shared" si="65"/>
         <v>0</v>
       </c>
       <c r="M40" s="60">
-        <f t="shared" si="63"/>
+        <f t="shared" si="65"/>
         <v>0</v>
       </c>
       <c r="N40" s="60">
-        <f t="shared" si="63"/>
-        <v>0</v>
-      </c>
-      <c r="O40" s="171"/>
-      <c r="P40" s="172"/>
-      <c r="Q40" s="173"/>
-      <c r="R40" s="174"/>
-      <c r="U40" s="147"/>
+        <f t="shared" si="65"/>
+        <v>0</v>
+      </c>
+      <c r="O40" s="100"/>
+      <c r="P40" s="102"/>
+      <c r="Q40" s="104"/>
+      <c r="R40" s="106"/>
+      <c r="U40" s="107"/>
     </row>
     <row r="41" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="B41" s="210" t="str">
+      <c r="B41" s="97" t="str">
         <f>과목!A19</f>
         <v>전상준</v>
       </c>
       <c r="C41" s="46">
-        <f t="shared" ca="1" si="27"/>
+        <f t="shared" ca="1" si="29"/>
         <v>0</v>
       </c>
       <c r="D41" s="47">
-        <f t="shared" ca="1" si="27"/>
+        <f t="shared" ca="1" si="29"/>
         <v>0</v>
       </c>
       <c r="E41" s="47">
-        <f t="shared" ca="1" si="27"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="F41" s="47">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="G41" s="47">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="H41" s="47">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="I41" s="47">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="J41" s="47">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="K41" s="47">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="L41" s="47">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="M41" s="47">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="N41" s="48">
-        <f t="shared" si="27"/>
-        <v>0</v>
-      </c>
-      <c r="O41" s="209">
-        <f t="shared" ref="O41" ca="1" si="64">SUM(C41:N41)</f>
-        <v>0</v>
-      </c>
-      <c r="P41" s="208">
-        <f t="shared" ref="P41" ca="1" si="65">($C$5*MONTH($M$5)-O41)/$C$5</f>
-        <v>3</v>
-      </c>
-      <c r="Q41" s="207">
-        <f t="shared" ref="Q41" ca="1" si="66">P41*$C$5</f>
-        <v>3</v>
-      </c>
-      <c r="R41" s="206"/>
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+      <c r="O41" s="99">
+        <f t="shared" ref="O41" ca="1" si="66">SUM(C41:N41)</f>
+        <v>0</v>
+      </c>
+      <c r="P41" s="101">
+        <f t="shared" ref="P41" ca="1" si="67">($C$5*MONTH($M$5)-O41)/$C$5</f>
+        <v>2</v>
+      </c>
+      <c r="Q41" s="103">
+        <f t="shared" ref="Q41" ca="1" si="68">P41*$C$5</f>
+        <v>2</v>
+      </c>
+      <c r="R41" s="105"/>
     </row>
     <row r="42" spans="1:21" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B42" s="170"/>
+      <c r="B42" s="98"/>
       <c r="C42" s="59">
-        <f t="shared" ref="C42:N42" ca="1" si="67">IF(C$7&gt;MONTH($M$5),0,SUMPRODUCT((YEAR(일자)=YEAR($M$5))*(MONTH(일자)=C$7)*(계정과목=$B41)*일자))</f>
+        <f t="shared" ref="C42:N42" ca="1" si="69">IF(C$7&gt;MONTH($M$5),0,SUMPRODUCT((YEAR(일자)=YEAR($M$5))*(MONTH(일자)=C$7)*(계정과목=$B41)*일자))</f>
         <v>0</v>
       </c>
       <c r="D42" s="60">
-        <f t="shared" ca="1" si="67"/>
+        <f t="shared" ca="1" si="69"/>
         <v>0</v>
       </c>
       <c r="E42" s="60">
-        <f t="shared" ca="1" si="67"/>
+        <f t="shared" si="69"/>
         <v>0</v>
       </c>
       <c r="F42" s="60">
-        <f t="shared" si="67"/>
+        <f t="shared" si="69"/>
         <v>0</v>
       </c>
       <c r="G42" s="60">
-        <f t="shared" si="67"/>
+        <f t="shared" si="69"/>
         <v>0</v>
       </c>
       <c r="H42" s="60">
-        <f t="shared" si="67"/>
+        <f t="shared" si="69"/>
         <v>0</v>
       </c>
       <c r="I42" s="60">
-        <f t="shared" si="67"/>
+        <f t="shared" si="69"/>
         <v>0</v>
       </c>
       <c r="J42" s="60">
-        <f t="shared" si="67"/>
+        <f t="shared" si="69"/>
         <v>0</v>
       </c>
       <c r="K42" s="60">
-        <f t="shared" si="67"/>
+        <f t="shared" si="69"/>
         <v>0</v>
       </c>
       <c r="L42" s="60">
-        <f t="shared" si="67"/>
+        <f t="shared" si="69"/>
         <v>0</v>
       </c>
       <c r="M42" s="60">
-        <f t="shared" si="67"/>
+        <f t="shared" si="69"/>
         <v>0</v>
       </c>
       <c r="N42" s="60">
-        <f t="shared" si="67"/>
-        <v>0</v>
-      </c>
-      <c r="O42" s="171"/>
-      <c r="P42" s="172"/>
-      <c r="Q42" s="173"/>
-      <c r="R42" s="174"/>
+        <f t="shared" si="69"/>
+        <v>0</v>
+      </c>
+      <c r="O42" s="100"/>
+      <c r="P42" s="102"/>
+      <c r="Q42" s="104"/>
+      <c r="R42" s="106"/>
     </row>
     <row r="43" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="B43" s="210" t="str">
+      <c r="B43" s="97" t="str">
         <f>과목!A20</f>
         <v>전종철</v>
       </c>
       <c r="C43" s="46">
-        <f t="shared" ca="1" si="27"/>
+        <f t="shared" ca="1" si="29"/>
         <v>0</v>
       </c>
       <c r="D43" s="47">
-        <f t="shared" ca="1" si="27"/>
+        <f t="shared" ca="1" si="29"/>
         <v>0</v>
       </c>
       <c r="E43" s="47">
-        <f t="shared" ca="1" si="27"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="F43" s="47">
-        <f t="shared" ref="F43:N43" si="68">IF(F$7&gt;MONTH($M$5),0,SUMPRODUCT((YEAR(일자)=YEAR($M$5))*(MONTH(일자)=F$7)*(계정과목=$B43)*수입)/10000)</f>
+        <f t="shared" ref="F43:N43" si="70">IF(F$7&gt;MONTH($M$5),0,SUMPRODUCT((YEAR(일자)=YEAR($M$5))*(MONTH(일자)=F$7)*(계정과목=$B43)*수입)/10000)</f>
         <v>0</v>
       </c>
       <c r="G43" s="47">
-        <f t="shared" si="68"/>
+        <f t="shared" si="70"/>
         <v>0</v>
       </c>
       <c r="H43" s="47">
-        <f t="shared" si="68"/>
+        <f t="shared" si="70"/>
         <v>0</v>
       </c>
       <c r="I43" s="47">
-        <f t="shared" si="68"/>
+        <f t="shared" si="70"/>
         <v>0</v>
       </c>
       <c r="J43" s="47">
-        <f t="shared" si="68"/>
+        <f t="shared" si="70"/>
         <v>0</v>
       </c>
       <c r="K43" s="47">
-        <f t="shared" si="68"/>
+        <f t="shared" si="70"/>
         <v>0</v>
       </c>
       <c r="L43" s="47">
-        <f t="shared" si="68"/>
+        <f t="shared" si="70"/>
         <v>0</v>
       </c>
       <c r="M43" s="47">
-        <f t="shared" si="68"/>
+        <f t="shared" si="70"/>
         <v>0</v>
       </c>
       <c r="N43" s="48">
-        <f t="shared" si="68"/>
-        <v>0</v>
-      </c>
-      <c r="O43" s="209">
-        <f t="shared" ref="O43" ca="1" si="69">SUM(C43:N43)</f>
-        <v>0</v>
-      </c>
-      <c r="P43" s="208">
-        <f t="shared" ref="P43" ca="1" si="70">($C$5*MONTH($M$5)-O43)/$C$5</f>
-        <v>3</v>
-      </c>
-      <c r="Q43" s="207">
-        <f t="shared" ref="Q43" ca="1" si="71">P43*$C$5</f>
-        <v>3</v>
-      </c>
-      <c r="R43" s="206"/>
+        <f t="shared" si="70"/>
+        <v>0</v>
+      </c>
+      <c r="O43" s="99">
+        <f t="shared" ref="O43" ca="1" si="71">SUM(C43:N43)</f>
+        <v>0</v>
+      </c>
+      <c r="P43" s="101">
+        <f t="shared" ref="P43" ca="1" si="72">($C$5*MONTH($M$5)-O43)/$C$5</f>
+        <v>2</v>
+      </c>
+      <c r="Q43" s="103">
+        <f t="shared" ref="Q43" ca="1" si="73">P43*$C$5</f>
+        <v>2</v>
+      </c>
+      <c r="R43" s="105"/>
     </row>
     <row r="44" spans="1:21" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B44" s="170"/>
+      <c r="B44" s="98"/>
       <c r="C44" s="59">
-        <f t="shared" ref="C44:N44" ca="1" si="72">IF(C$7&gt;MONTH($M$5),0,SUMPRODUCT((YEAR(일자)=YEAR($M$5))*(MONTH(일자)=C$7)*(계정과목=$B43)*일자))</f>
+        <f t="shared" ref="C44:N44" ca="1" si="74">IF(C$7&gt;MONTH($M$5),0,SUMPRODUCT((YEAR(일자)=YEAR($M$5))*(MONTH(일자)=C$7)*(계정과목=$B43)*일자))</f>
         <v>0</v>
       </c>
       <c r="D44" s="60">
-        <f t="shared" ca="1" si="72"/>
+        <f t="shared" ca="1" si="74"/>
         <v>0</v>
       </c>
       <c r="E44" s="60">
-        <f t="shared" ca="1" si="72"/>
+        <f t="shared" si="74"/>
         <v>0</v>
       </c>
       <c r="F44" s="60">
-        <f t="shared" si="72"/>
+        <f t="shared" si="74"/>
         <v>0</v>
       </c>
       <c r="G44" s="60">
-        <f t="shared" si="72"/>
+        <f t="shared" si="74"/>
         <v>0</v>
       </c>
       <c r="H44" s="60">
-        <f t="shared" si="72"/>
+        <f t="shared" si="74"/>
         <v>0</v>
       </c>
       <c r="I44" s="60">
-        <f t="shared" si="72"/>
+        <f t="shared" si="74"/>
         <v>0</v>
       </c>
       <c r="J44" s="60">
-        <f t="shared" si="72"/>
+        <f t="shared" si="74"/>
         <v>0</v>
       </c>
       <c r="K44" s="60">
-        <f t="shared" si="72"/>
+        <f t="shared" si="74"/>
         <v>0</v>
       </c>
       <c r="L44" s="60">
-        <f t="shared" si="72"/>
+        <f t="shared" si="74"/>
         <v>0</v>
       </c>
       <c r="M44" s="60">
-        <f t="shared" si="72"/>
+        <f t="shared" si="74"/>
         <v>0</v>
       </c>
       <c r="N44" s="60">
-        <f t="shared" si="72"/>
-        <v>0</v>
-      </c>
-      <c r="O44" s="171"/>
-      <c r="P44" s="172"/>
-      <c r="Q44" s="173"/>
-      <c r="R44" s="174"/>
+        <f t="shared" si="74"/>
+        <v>0</v>
+      </c>
+      <c r="O44" s="100"/>
+      <c r="P44" s="102"/>
+      <c r="Q44" s="104"/>
+      <c r="R44" s="106"/>
     </row>
     <row r="45" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="B45" s="210" t="str">
+      <c r="B45" s="97" t="str">
         <f>과목!A21</f>
         <v>전창섭</v>
       </c>
       <c r="C45" s="46">
-        <f t="shared" ref="C45:N45" ca="1" si="73">IF(C$7&gt;MONTH($M$5),0,SUMPRODUCT((YEAR(일자)=YEAR($M$5))*(MONTH(일자)=C$7)*(계정과목=$B45)*수입)/10000)</f>
+        <f t="shared" ref="C45:N45" ca="1" si="75">IF(C$7&gt;MONTH($M$5),0,SUMPRODUCT((YEAR(일자)=YEAR($M$5))*(MONTH(일자)=C$7)*(계정과목=$B45)*수입)/10000)</f>
         <v>0</v>
       </c>
       <c r="D45" s="47">
-        <f t="shared" ca="1" si="73"/>
+        <f t="shared" ca="1" si="75"/>
         <v>0</v>
       </c>
       <c r="E45" s="47">
-        <f t="shared" ca="1" si="73"/>
+        <f t="shared" si="75"/>
         <v>0</v>
       </c>
       <c r="F45" s="47">
-        <f t="shared" si="73"/>
+        <f t="shared" si="75"/>
         <v>0</v>
       </c>
       <c r="G45" s="47">
-        <f t="shared" si="73"/>
+        <f t="shared" si="75"/>
         <v>0</v>
       </c>
       <c r="H45" s="47">
-        <f t="shared" si="73"/>
+        <f t="shared" si="75"/>
         <v>0</v>
       </c>
       <c r="I45" s="47">
-        <f t="shared" si="73"/>
+        <f t="shared" si="75"/>
         <v>0</v>
       </c>
       <c r="J45" s="47">
-        <f t="shared" si="73"/>
+        <f t="shared" si="75"/>
         <v>0</v>
       </c>
       <c r="K45" s="47">
-        <f t="shared" si="73"/>
+        <f t="shared" si="75"/>
         <v>0</v>
       </c>
       <c r="L45" s="47">
-        <f t="shared" si="73"/>
+        <f t="shared" si="75"/>
         <v>0</v>
       </c>
       <c r="M45" s="47">
-        <f t="shared" si="73"/>
+        <f t="shared" si="75"/>
         <v>0</v>
       </c>
       <c r="N45" s="48">
-        <f t="shared" si="73"/>
-        <v>0</v>
-      </c>
-      <c r="O45" s="209">
-        <f t="shared" ref="O45" ca="1" si="74">SUM(C45:N45)</f>
-        <v>0</v>
-      </c>
-      <c r="P45" s="208">
-        <f t="shared" ref="P45" ca="1" si="75">($C$5*MONTH($M$5)-O45)/$C$5</f>
-        <v>3</v>
-      </c>
-      <c r="Q45" s="207">
-        <f t="shared" ref="Q45" ca="1" si="76">P45*$C$5</f>
-        <v>3</v>
-      </c>
-      <c r="R45" s="206"/>
+        <f t="shared" si="75"/>
+        <v>0</v>
+      </c>
+      <c r="O45" s="99">
+        <f t="shared" ref="O45" ca="1" si="76">SUM(C45:N45)</f>
+        <v>0</v>
+      </c>
+      <c r="P45" s="101">
+        <f t="shared" ref="P45" ca="1" si="77">($C$5*MONTH($M$5)-O45)/$C$5</f>
+        <v>2</v>
+      </c>
+      <c r="Q45" s="103">
+        <f t="shared" ref="Q45" ca="1" si="78">P45*$C$5</f>
+        <v>2</v>
+      </c>
+      <c r="R45" s="105"/>
     </row>
     <row r="46" spans="1:21" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B46" s="170"/>
+      <c r="B46" s="98"/>
       <c r="C46" s="59">
-        <f t="shared" ref="C46:N46" ca="1" si="77">IF(C$7&gt;MONTH($M$5),0,SUMPRODUCT((YEAR(일자)=YEAR($M$5))*(MONTH(일자)=C$7)*(계정과목=$B45)*일자))</f>
+        <f t="shared" ref="C46:N46" ca="1" si="79">IF(C$7&gt;MONTH($M$5),0,SUMPRODUCT((YEAR(일자)=YEAR($M$5))*(MONTH(일자)=C$7)*(계정과목=$B45)*일자))</f>
         <v>0</v>
       </c>
       <c r="D46" s="60">
-        <f t="shared" ca="1" si="77"/>
+        <f t="shared" ca="1" si="79"/>
         <v>0</v>
       </c>
       <c r="E46" s="60">
-        <f t="shared" ca="1" si="77"/>
+        <f t="shared" si="79"/>
         <v>0</v>
       </c>
       <c r="F46" s="60">
-        <f t="shared" si="77"/>
+        <f t="shared" si="79"/>
         <v>0</v>
       </c>
       <c r="G46" s="60">
-        <f t="shared" si="77"/>
+        <f t="shared" si="79"/>
         <v>0</v>
       </c>
       <c r="H46" s="60">
-        <f t="shared" si="77"/>
+        <f t="shared" si="79"/>
         <v>0</v>
       </c>
       <c r="I46" s="60">
-        <f t="shared" si="77"/>
+        <f t="shared" si="79"/>
         <v>0</v>
       </c>
       <c r="J46" s="60">
-        <f t="shared" si="77"/>
+        <f t="shared" si="79"/>
         <v>0</v>
       </c>
       <c r="K46" s="60">
-        <f t="shared" si="77"/>
+        <f t="shared" si="79"/>
         <v>0</v>
       </c>
       <c r="L46" s="60">
-        <f t="shared" si="77"/>
+        <f t="shared" si="79"/>
         <v>0</v>
       </c>
       <c r="M46" s="60">
-        <f t="shared" si="77"/>
+        <f t="shared" si="79"/>
         <v>0</v>
       </c>
       <c r="N46" s="60">
-        <f t="shared" si="77"/>
-        <v>0</v>
-      </c>
-      <c r="O46" s="171"/>
-      <c r="P46" s="172"/>
-      <c r="Q46" s="173"/>
-      <c r="R46" s="174"/>
+        <f t="shared" si="79"/>
+        <v>0</v>
+      </c>
+      <c r="O46" s="100"/>
+      <c r="P46" s="102"/>
+      <c r="Q46" s="104"/>
+      <c r="R46" s="106"/>
     </row>
     <row r="47" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="B47" s="210" t="str">
+      <c r="B47" s="97" t="str">
         <f>과목!A22</f>
         <v>조병남</v>
       </c>
       <c r="C47" s="46">
-        <f t="shared" ref="C47:N47" ca="1" si="78">IF(C$7&gt;MONTH($M$5),0,SUMPRODUCT((YEAR(일자)=YEAR($M$5))*(MONTH(일자)=C$7)*(계정과목=$B47)*수입)/10000)</f>
+        <f t="shared" ref="C47:N47" ca="1" si="80">IF(C$7&gt;MONTH($M$5),0,SUMPRODUCT((YEAR(일자)=YEAR($M$5))*(MONTH(일자)=C$7)*(계정과목=$B47)*수입)/10000)</f>
         <v>0</v>
       </c>
       <c r="D47" s="47">
-        <f t="shared" ca="1" si="78"/>
+        <f t="shared" ca="1" si="80"/>
         <v>0</v>
       </c>
       <c r="E47" s="47">
-        <f t="shared" ca="1" si="78"/>
+        <f t="shared" si="80"/>
         <v>0</v>
       </c>
       <c r="F47" s="47">
-        <f t="shared" si="78"/>
+        <f t="shared" si="80"/>
         <v>0</v>
       </c>
       <c r="G47" s="47">
-        <f t="shared" si="78"/>
+        <f t="shared" si="80"/>
         <v>0</v>
       </c>
       <c r="H47" s="47">
-        <f t="shared" si="78"/>
+        <f t="shared" si="80"/>
         <v>0</v>
       </c>
       <c r="I47" s="47">
-        <f t="shared" si="78"/>
+        <f t="shared" si="80"/>
         <v>0</v>
       </c>
       <c r="J47" s="47">
-        <f t="shared" si="78"/>
+        <f t="shared" si="80"/>
         <v>0</v>
       </c>
       <c r="K47" s="47">
-        <f t="shared" si="78"/>
+        <f t="shared" si="80"/>
         <v>0</v>
       </c>
       <c r="L47" s="47">
-        <f t="shared" si="78"/>
+        <f t="shared" si="80"/>
         <v>0</v>
       </c>
       <c r="M47" s="47">
-        <f t="shared" si="78"/>
+        <f t="shared" si="80"/>
         <v>0</v>
       </c>
       <c r="N47" s="48">
-        <f t="shared" si="78"/>
-        <v>0</v>
-      </c>
-      <c r="O47" s="209">
-        <f t="shared" ref="O47" ca="1" si="79">SUM(C47:N47)</f>
-        <v>0</v>
-      </c>
-      <c r="P47" s="208">
-        <f t="shared" ref="P47" ca="1" si="80">($C$5*MONTH($M$5)-O47)/$C$5</f>
-        <v>3</v>
-      </c>
-      <c r="Q47" s="207">
-        <f t="shared" ref="Q47" ca="1" si="81">P47*$C$5</f>
-        <v>3</v>
-      </c>
-      <c r="R47" s="206"/>
+        <f t="shared" si="80"/>
+        <v>0</v>
+      </c>
+      <c r="O47" s="99">
+        <f t="shared" ref="O47" ca="1" si="81">SUM(C47:N47)</f>
+        <v>0</v>
+      </c>
+      <c r="P47" s="101">
+        <f t="shared" ref="P47" ca="1" si="82">($C$5*MONTH($M$5)-O47)/$C$5</f>
+        <v>2</v>
+      </c>
+      <c r="Q47" s="103">
+        <f t="shared" ref="Q47" ca="1" si="83">P47*$C$5</f>
+        <v>2</v>
+      </c>
+      <c r="R47" s="105"/>
     </row>
     <row r="48" spans="1:21" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B48" s="170"/>
+      <c r="B48" s="98"/>
       <c r="C48" s="59">
-        <f t="shared" ref="C48:N48" ca="1" si="82">IF(C$7&gt;MONTH($M$5),0,SUMPRODUCT((YEAR(일자)=YEAR($M$5))*(MONTH(일자)=C$7)*(계정과목=$B47)*일자))</f>
+        <f t="shared" ref="C48:N48" ca="1" si="84">IF(C$7&gt;MONTH($M$5),0,SUMPRODUCT((YEAR(일자)=YEAR($M$5))*(MONTH(일자)=C$7)*(계정과목=$B47)*일자))</f>
         <v>0</v>
       </c>
       <c r="D48" s="60">
-        <f t="shared" ca="1" si="82"/>
+        <f t="shared" ca="1" si="84"/>
         <v>0</v>
       </c>
       <c r="E48" s="60">
-        <f t="shared" ca="1" si="82"/>
+        <f t="shared" si="84"/>
         <v>0</v>
       </c>
       <c r="F48" s="60">
-        <f t="shared" si="82"/>
+        <f t="shared" si="84"/>
         <v>0</v>
       </c>
       <c r="G48" s="60">
-        <f t="shared" si="82"/>
+        <f t="shared" si="84"/>
         <v>0</v>
       </c>
       <c r="H48" s="60">
-        <f t="shared" si="82"/>
+        <f t="shared" si="84"/>
         <v>0</v>
       </c>
       <c r="I48" s="60">
-        <f t="shared" si="82"/>
+        <f t="shared" si="84"/>
         <v>0</v>
       </c>
       <c r="J48" s="60">
-        <f t="shared" si="82"/>
+        <f t="shared" si="84"/>
         <v>0</v>
       </c>
       <c r="K48" s="60">
-        <f t="shared" si="82"/>
+        <f t="shared" si="84"/>
         <v>0</v>
       </c>
       <c r="L48" s="60">
-        <f t="shared" si="82"/>
+        <f t="shared" si="84"/>
         <v>0</v>
       </c>
       <c r="M48" s="60">
-        <f t="shared" si="82"/>
+        <f t="shared" si="84"/>
         <v>0</v>
       </c>
       <c r="N48" s="60">
-        <f t="shared" si="82"/>
-        <v>0</v>
-      </c>
-      <c r="O48" s="171"/>
-      <c r="P48" s="172"/>
-      <c r="Q48" s="173"/>
-      <c r="R48" s="174"/>
+        <f t="shared" si="84"/>
+        <v>0</v>
+      </c>
+      <c r="O48" s="100"/>
+      <c r="P48" s="102"/>
+      <c r="Q48" s="104"/>
+      <c r="R48" s="106"/>
     </row>
     <row r="49" spans="2:18" x14ac:dyDescent="0.15">
-      <c r="B49" s="210" t="str">
+      <c r="B49" s="97" t="str">
         <f>과목!A23</f>
         <v>최영애</v>
       </c>
       <c r="C49" s="46">
-        <f t="shared" ref="C49:N51" ca="1" si="83">IF(C$7&gt;MONTH($M$5),0,SUMPRODUCT((YEAR(일자)=YEAR($M$5))*(MONTH(일자)=C$7)*(계정과목=$B49)*수입)/10000)</f>
+        <f t="shared" ref="C49:N51" ca="1" si="85">IF(C$7&gt;MONTH($M$5),0,SUMPRODUCT((YEAR(일자)=YEAR($M$5))*(MONTH(일자)=C$7)*(계정과목=$B49)*수입)/10000)</f>
         <v>0</v>
       </c>
       <c r="D49" s="47">
-        <f t="shared" ca="1" si="83"/>
+        <f t="shared" ca="1" si="85"/>
         <v>0</v>
       </c>
       <c r="E49" s="47">
-        <f t="shared" ca="1" si="83"/>
+        <f t="shared" si="85"/>
         <v>0</v>
       </c>
       <c r="F49" s="47">
-        <f t="shared" si="83"/>
+        <f t="shared" si="85"/>
         <v>0</v>
       </c>
       <c r="G49" s="47">
-        <f t="shared" si="83"/>
+        <f t="shared" si="85"/>
         <v>0</v>
       </c>
       <c r="H49" s="47">
-        <f t="shared" si="83"/>
+        <f t="shared" si="85"/>
         <v>0</v>
       </c>
       <c r="I49" s="47">
-        <f t="shared" si="83"/>
+        <f t="shared" si="85"/>
         <v>0</v>
       </c>
       <c r="J49" s="47">
-        <f t="shared" si="83"/>
+        <f t="shared" si="85"/>
         <v>0</v>
       </c>
       <c r="K49" s="47">
-        <f t="shared" si="83"/>
+        <f t="shared" si="85"/>
         <v>0</v>
       </c>
       <c r="L49" s="47">
-        <f t="shared" si="83"/>
+        <f t="shared" si="85"/>
         <v>0</v>
       </c>
       <c r="M49" s="47">
-        <f t="shared" si="83"/>
+        <f t="shared" si="85"/>
         <v>0</v>
       </c>
       <c r="N49" s="48">
-        <f t="shared" si="83"/>
-        <v>0</v>
-      </c>
-      <c r="O49" s="209">
-        <f t="shared" ref="O49" ca="1" si="84">SUM(C49:N49)</f>
-        <v>0</v>
-      </c>
-      <c r="P49" s="208">
-        <f t="shared" ref="P49" ca="1" si="85">($C$5*MONTH($M$5)-O49)/$C$5</f>
-        <v>3</v>
-      </c>
-      <c r="Q49" s="207">
-        <f t="shared" ref="Q49" ca="1" si="86">P49*$C$5</f>
-        <v>3</v>
-      </c>
-      <c r="R49" s="206"/>
+        <f t="shared" si="85"/>
+        <v>0</v>
+      </c>
+      <c r="O49" s="99">
+        <f t="shared" ref="O49" ca="1" si="86">SUM(C49:N49)</f>
+        <v>0</v>
+      </c>
+      <c r="P49" s="101">
+        <f t="shared" ref="P49" ca="1" si="87">($C$5*MONTH($M$5)-O49)/$C$5</f>
+        <v>2</v>
+      </c>
+      <c r="Q49" s="103">
+        <f t="shared" ref="Q49" ca="1" si="88">P49*$C$5</f>
+        <v>2</v>
+      </c>
+      <c r="R49" s="105"/>
     </row>
     <row r="50" spans="2:18" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B50" s="170"/>
+      <c r="B50" s="98"/>
       <c r="C50" s="59">
-        <f t="shared" ref="C50:N50" ca="1" si="87">IF(C$7&gt;MONTH($M$5),0,SUMPRODUCT((YEAR(일자)=YEAR($M$5))*(MONTH(일자)=C$7)*(계정과목=$B49)*일자))</f>
+        <f t="shared" ref="C50:N50" ca="1" si="89">IF(C$7&gt;MONTH($M$5),0,SUMPRODUCT((YEAR(일자)=YEAR($M$5))*(MONTH(일자)=C$7)*(계정과목=$B49)*일자))</f>
         <v>0</v>
       </c>
       <c r="D50" s="60">
-        <f t="shared" ca="1" si="87"/>
+        <f t="shared" ca="1" si="89"/>
         <v>0</v>
       </c>
       <c r="E50" s="60">
-        <f t="shared" ca="1" si="87"/>
+        <f t="shared" si="89"/>
         <v>0</v>
       </c>
       <c r="F50" s="60">
-        <f t="shared" si="87"/>
+        <f t="shared" si="89"/>
         <v>0</v>
       </c>
       <c r="G50" s="60">
-        <f t="shared" si="87"/>
+        <f t="shared" si="89"/>
         <v>0</v>
       </c>
       <c r="H50" s="60">
-        <f t="shared" si="87"/>
+        <f t="shared" si="89"/>
         <v>0</v>
       </c>
       <c r="I50" s="60">
-        <f t="shared" si="87"/>
+        <f t="shared" si="89"/>
         <v>0</v>
       </c>
       <c r="J50" s="60">
-        <f t="shared" si="87"/>
+        <f t="shared" si="89"/>
         <v>0</v>
       </c>
       <c r="K50" s="60">
-        <f t="shared" si="87"/>
+        <f t="shared" si="89"/>
         <v>0</v>
       </c>
       <c r="L50" s="60">
-        <f t="shared" si="87"/>
+        <f t="shared" si="89"/>
         <v>0</v>
       </c>
       <c r="M50" s="60">
-        <f t="shared" si="87"/>
+        <f t="shared" si="89"/>
         <v>0</v>
       </c>
       <c r="N50" s="60">
-        <f t="shared" si="87"/>
-        <v>0</v>
-      </c>
-      <c r="O50" s="171"/>
-      <c r="P50" s="172"/>
-      <c r="Q50" s="173"/>
-      <c r="R50" s="174"/>
+        <f t="shared" si="89"/>
+        <v>0</v>
+      </c>
+      <c r="O50" s="100"/>
+      <c r="P50" s="102"/>
+      <c r="Q50" s="104"/>
+      <c r="R50" s="106"/>
     </row>
     <row r="51" spans="2:18" x14ac:dyDescent="0.15">
-      <c r="B51" s="210" t="str">
+      <c r="B51" s="97" t="str">
         <f>과목!A24</f>
         <v>허남희</v>
       </c>
       <c r="C51" s="46">
-        <f t="shared" ca="1" si="83"/>
+        <f t="shared" ca="1" si="85"/>
         <v>0</v>
       </c>
       <c r="D51" s="47">
-        <f t="shared" ca="1" si="83"/>
+        <f t="shared" ca="1" si="85"/>
         <v>0</v>
       </c>
       <c r="E51" s="47">
-        <f t="shared" ca="1" si="83"/>
+        <f t="shared" si="85"/>
         <v>0</v>
       </c>
       <c r="F51" s="47">
-        <f t="shared" si="83"/>
+        <f t="shared" si="85"/>
         <v>0</v>
       </c>
       <c r="G51" s="47">
-        <f t="shared" si="83"/>
+        <f t="shared" si="85"/>
         <v>0</v>
       </c>
       <c r="H51" s="47">
-        <f t="shared" si="83"/>
+        <f t="shared" si="85"/>
         <v>0</v>
       </c>
       <c r="I51" s="47">
-        <f t="shared" si="83"/>
+        <f t="shared" si="85"/>
         <v>0</v>
       </c>
       <c r="J51" s="47">
-        <f t="shared" si="83"/>
+        <f t="shared" si="85"/>
         <v>0</v>
       </c>
       <c r="K51" s="47">
-        <f t="shared" si="83"/>
+        <f t="shared" si="85"/>
         <v>0</v>
       </c>
       <c r="L51" s="47">
-        <f t="shared" si="83"/>
+        <f t="shared" si="85"/>
         <v>0</v>
       </c>
       <c r="M51" s="47">
-        <f t="shared" si="83"/>
+        <f t="shared" si="85"/>
         <v>0</v>
       </c>
       <c r="N51" s="48">
-        <f t="shared" si="83"/>
-        <v>0</v>
-      </c>
-      <c r="O51" s="209">
-        <f t="shared" ref="O51" ca="1" si="88">SUM(C51:N51)</f>
-        <v>0</v>
-      </c>
-      <c r="P51" s="208">
-        <f t="shared" ref="P51" ca="1" si="89">($C$5*MONTH($M$5)-O51)/$C$5</f>
-        <v>3</v>
-      </c>
-      <c r="Q51" s="207">
-        <f t="shared" ref="Q51" ca="1" si="90">P51*$C$5</f>
-        <v>3</v>
-      </c>
-      <c r="R51" s="206"/>
+        <f t="shared" si="85"/>
+        <v>0</v>
+      </c>
+      <c r="O51" s="99">
+        <f t="shared" ref="O51" ca="1" si="90">SUM(C51:N51)</f>
+        <v>0</v>
+      </c>
+      <c r="P51" s="101">
+        <f t="shared" ref="P51" ca="1" si="91">($C$5*MONTH($M$5)-O51)/$C$5</f>
+        <v>2</v>
+      </c>
+      <c r="Q51" s="103">
+        <f t="shared" ref="Q51" ca="1" si="92">P51*$C$5</f>
+        <v>2</v>
+      </c>
+      <c r="R51" s="105"/>
     </row>
     <row r="52" spans="2:18" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B52" s="170"/>
+      <c r="B52" s="98"/>
       <c r="C52" s="59">
-        <f t="shared" ref="C52:N52" ca="1" si="91">IF(C$7&gt;MONTH($M$5),0,SUMPRODUCT((YEAR(일자)=YEAR($M$5))*(MONTH(일자)=C$7)*(계정과목=$B51)*일자))</f>
+        <f t="shared" ref="C52:N52" ca="1" si="93">IF(C$7&gt;MONTH($M$5),0,SUMPRODUCT((YEAR(일자)=YEAR($M$5))*(MONTH(일자)=C$7)*(계정과목=$B51)*일자))</f>
         <v>0</v>
       </c>
       <c r="D52" s="60">
-        <f t="shared" ca="1" si="91"/>
+        <f t="shared" ca="1" si="93"/>
         <v>0</v>
       </c>
       <c r="E52" s="60">
-        <f t="shared" ca="1" si="91"/>
+        <f t="shared" si="93"/>
         <v>0</v>
       </c>
       <c r="F52" s="60">
-        <f t="shared" si="91"/>
+        <f t="shared" si="93"/>
         <v>0</v>
       </c>
       <c r="G52" s="60">
-        <f t="shared" si="91"/>
+        <f t="shared" si="93"/>
         <v>0</v>
       </c>
       <c r="H52" s="60">
-        <f t="shared" si="91"/>
+        <f t="shared" si="93"/>
         <v>0</v>
       </c>
       <c r="I52" s="60">
-        <f t="shared" si="91"/>
+        <f t="shared" si="93"/>
         <v>0</v>
       </c>
       <c r="J52" s="60">
-        <f t="shared" si="91"/>
+        <f t="shared" si="93"/>
         <v>0</v>
       </c>
       <c r="K52" s="60">
-        <f t="shared" si="91"/>
+        <f t="shared" si="93"/>
         <v>0</v>
       </c>
       <c r="L52" s="60">
-        <f t="shared" si="91"/>
+        <f t="shared" si="93"/>
         <v>0</v>
       </c>
       <c r="M52" s="60">
-        <f t="shared" si="91"/>
+        <f t="shared" si="93"/>
         <v>0</v>
       </c>
       <c r="N52" s="60">
-        <f t="shared" si="91"/>
-        <v>0</v>
-      </c>
-      <c r="O52" s="171"/>
-      <c r="P52" s="172"/>
-      <c r="Q52" s="173"/>
-      <c r="R52" s="174"/>
+        <f t="shared" si="93"/>
+        <v>0</v>
+      </c>
+      <c r="O52" s="100"/>
+      <c r="P52" s="102"/>
+      <c r="Q52" s="104"/>
+      <c r="R52" s="106"/>
     </row>
     <row r="62" spans="2:18" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B62" s="29" t="s">
-        <v>57</v>
-      </c>
-      <c r="M62" s="205">
+        <v>53</v>
+      </c>
+      <c r="M62" s="168">
         <f>M5</f>
-        <v>45721</v>
-      </c>
-      <c r="N62" s="205"/>
-      <c r="O62" s="205"/>
-      <c r="P62" s="205"/>
-      <c r="Q62" s="205"/>
-      <c r="R62" s="205"/>
+        <v>45690</v>
+      </c>
+      <c r="N62" s="168"/>
+      <c r="O62" s="168"/>
+      <c r="P62" s="168"/>
+      <c r="Q62" s="168"/>
+      <c r="R62" s="168"/>
     </row>
     <row r="63" spans="2:18" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B63" s="127" t="s">
-        <v>48</v>
-      </c>
-      <c r="C63" s="128"/>
-      <c r="D63" s="129" t="s">
-        <v>56</v>
-      </c>
-      <c r="E63" s="130"/>
-      <c r="F63" s="131"/>
-      <c r="G63" s="129" t="s">
-        <v>49</v>
-      </c>
-      <c r="H63" s="130"/>
-      <c r="I63" s="131"/>
-      <c r="J63" s="129" t="s">
+      <c r="B63" s="202" t="s">
         <v>44</v>
       </c>
-      <c r="K63" s="130"/>
-      <c r="L63" s="131"/>
-      <c r="M63" s="129" t="s">
-        <v>50</v>
-      </c>
-      <c r="N63" s="130"/>
-      <c r="O63" s="131"/>
-      <c r="P63" s="129" t="s">
+      <c r="C63" s="203"/>
+      <c r="D63" s="172" t="s">
+        <v>52</v>
+      </c>
+      <c r="E63" s="173"/>
+      <c r="F63" s="204"/>
+      <c r="G63" s="172" t="s">
         <v>45</v>
       </c>
-      <c r="Q63" s="130"/>
-      <c r="R63" s="151"/>
+      <c r="H63" s="173"/>
+      <c r="I63" s="204"/>
+      <c r="J63" s="172" t="s">
+        <v>41</v>
+      </c>
+      <c r="K63" s="173"/>
+      <c r="L63" s="204"/>
+      <c r="M63" s="172" t="s">
+        <v>46</v>
+      </c>
+      <c r="N63" s="173"/>
+      <c r="O63" s="204"/>
+      <c r="P63" s="172" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q63" s="173"/>
+      <c r="R63" s="174"/>
     </row>
     <row r="64" spans="2:18" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B64" s="163">
+      <c r="B64" s="154">
         <f>YEAR($M$5)</f>
         <v>2025</v>
       </c>
-      <c r="C64" s="164"/>
-      <c r="D64" s="165">
-        <f ca="1">INDIRECT("B"&amp;ROW($B10)+ROW()-28)</f>
-        <v>0</v>
-      </c>
-      <c r="E64" s="166"/>
-      <c r="F64" s="167"/>
-      <c r="G64" s="132">
+      <c r="C64" s="155"/>
+      <c r="D64" s="156">
+        <f t="shared" ref="D64:D69" ca="1" si="94">INDIRECT("B"&amp;ROW($B10)+ROW()-28)</f>
+        <v>0</v>
+      </c>
+      <c r="E64" s="157"/>
+      <c r="F64" s="158"/>
+      <c r="G64" s="159">
         <f>MONTH($M$5)*$C$5</f>
-        <v>3</v>
-      </c>
-      <c r="H64" s="133"/>
-      <c r="I64" s="134"/>
-      <c r="J64" s="132">
-        <f ca="1">SUMPRODUCT((YEAR(일자)=$B$64)*(MONTH(일자)&gt;=1)*(MONTH(일자)&lt;=MONTH($M$5))*(계정과목=$D64)*수입)/10000</f>
-        <v>0</v>
-      </c>
-      <c r="K64" s="133"/>
-      <c r="L64" s="134"/>
-      <c r="M64" s="135">
+        <v>2</v>
+      </c>
+      <c r="H64" s="160"/>
+      <c r="I64" s="161"/>
+      <c r="J64" s="159">
+        <f t="shared" ref="J64:J69" ca="1" si="95">SUMPRODUCT((YEAR(일자)=$B$64)*(MONTH(일자)&gt;=1)*(MONTH(일자)&lt;=MONTH($M$5))*(계정과목=$D64)*수입)/10000</f>
+        <v>0</v>
+      </c>
+      <c r="K64" s="160"/>
+      <c r="L64" s="161"/>
+      <c r="M64" s="205">
         <f ca="1">G64-J64</f>
-        <v>3</v>
-      </c>
-      <c r="N64" s="136"/>
-      <c r="O64" s="137"/>
-      <c r="P64" s="155" t="str">
+        <v>2</v>
+      </c>
+      <c r="N64" s="206"/>
+      <c r="O64" s="207"/>
+      <c r="P64" s="178" t="str">
         <f ca="1">IF(M64=0,0,IF(M64&lt;0,ABS(M64)/$C$5&amp;"개월 선납",M64/$C$5&amp;"개월 미납"))</f>
-        <v>3개월 미납</v>
-      </c>
-      <c r="Q64" s="156"/>
-      <c r="R64" s="157"/>
+        <v>2개월 미납</v>
+      </c>
+      <c r="Q64" s="179"/>
+      <c r="R64" s="180"/>
     </row>
     <row r="65" spans="2:18" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B65" s="159"/>
-      <c r="C65" s="160"/>
-      <c r="D65" s="152">
-        <f ca="1">INDIRECT("B"&amp;ROW($B11)+ROW()-28)</f>
-        <v>0</v>
-      </c>
-      <c r="E65" s="204"/>
-      <c r="F65" s="154"/>
-      <c r="G65" s="138">
-        <f t="shared" ref="G65:G72" si="92">MONTH($M$5)*$C$5</f>
-        <v>3</v>
-      </c>
-      <c r="H65" s="203"/>
-      <c r="I65" s="140"/>
-      <c r="J65" s="138">
-        <f ca="1">SUMPRODUCT((YEAR(일자)=$B$64)*(MONTH(일자)&gt;=1)*(MONTH(일자)&lt;=MONTH($M$5))*(계정과목=$D65)*수입)/10000</f>
-        <v>0</v>
-      </c>
-      <c r="K65" s="203"/>
-      <c r="L65" s="140"/>
-      <c r="M65" s="141">
-        <f t="shared" ref="M65:M72" ca="1" si="93">G65-J65</f>
-        <v>3</v>
-      </c>
-      <c r="N65" s="202"/>
-      <c r="O65" s="143"/>
-      <c r="P65" s="148" t="str">
-        <f t="shared" ref="P65:P72" ca="1" si="94">IF(M65=0,0,IF(M65&lt;0,ABS(M65)/$C$5&amp;"개월 선납",M65/$C$5&amp;"개월 미납"))</f>
-        <v>3개월 미납</v>
-      </c>
-      <c r="Q65" s="149"/>
-      <c r="R65" s="150"/>
+      <c r="B65" s="147"/>
+      <c r="C65" s="148"/>
+      <c r="D65" s="162">
+        <f t="shared" ca="1" si="94"/>
+        <v>0</v>
+      </c>
+      <c r="E65" s="163"/>
+      <c r="F65" s="164"/>
+      <c r="G65" s="151">
+        <f t="shared" ref="G65:G72" si="96">MONTH($M$5)*$C$5</f>
+        <v>2</v>
+      </c>
+      <c r="H65" s="152"/>
+      <c r="I65" s="153"/>
+      <c r="J65" s="151">
+        <f t="shared" ca="1" si="95"/>
+        <v>0</v>
+      </c>
+      <c r="K65" s="152"/>
+      <c r="L65" s="153"/>
+      <c r="M65" s="175">
+        <f t="shared" ref="M65:M72" ca="1" si="97">G65-J65</f>
+        <v>2</v>
+      </c>
+      <c r="N65" s="176"/>
+      <c r="O65" s="177"/>
+      <c r="P65" s="169" t="str">
+        <f t="shared" ref="P65:P72" ca="1" si="98">IF(M65=0,0,IF(M65&lt;0,ABS(M65)/$C$5&amp;"개월 선납",M65/$C$5&amp;"개월 미납"))</f>
+        <v>2개월 미납</v>
+      </c>
+      <c r="Q65" s="170"/>
+      <c r="R65" s="171"/>
     </row>
     <row r="66" spans="2:18" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B66" s="159"/>
-      <c r="C66" s="160"/>
-      <c r="D66" s="152">
-        <f ca="1">INDIRECT("B"&amp;ROW($B12)+ROW()-28)</f>
-        <v>0</v>
-      </c>
-      <c r="E66" s="204"/>
-      <c r="F66" s="154"/>
-      <c r="G66" s="138">
-        <f t="shared" si="92"/>
-        <v>3</v>
-      </c>
-      <c r="H66" s="203"/>
-      <c r="I66" s="140"/>
-      <c r="J66" s="138">
-        <f ca="1">SUMPRODUCT((YEAR(일자)=$B$64)*(MONTH(일자)&gt;=1)*(MONTH(일자)&lt;=MONTH($M$5))*(계정과목=$D66)*수입)/10000</f>
-        <v>0</v>
-      </c>
-      <c r="K66" s="203"/>
-      <c r="L66" s="140"/>
-      <c r="M66" s="141">
-        <f t="shared" ca="1" si="93"/>
-        <v>3</v>
-      </c>
-      <c r="N66" s="202"/>
-      <c r="O66" s="143"/>
-      <c r="P66" s="148" t="str">
+      <c r="B66" s="147"/>
+      <c r="C66" s="148"/>
+      <c r="D66" s="162">
         <f t="shared" ca="1" si="94"/>
-        <v>3개월 미납</v>
-      </c>
-      <c r="Q66" s="149"/>
-      <c r="R66" s="150"/>
+        <v>0</v>
+      </c>
+      <c r="E66" s="163"/>
+      <c r="F66" s="164"/>
+      <c r="G66" s="151">
+        <f t="shared" si="96"/>
+        <v>2</v>
+      </c>
+      <c r="H66" s="152"/>
+      <c r="I66" s="153"/>
+      <c r="J66" s="151">
+        <f t="shared" ca="1" si="95"/>
+        <v>0</v>
+      </c>
+      <c r="K66" s="152"/>
+      <c r="L66" s="153"/>
+      <c r="M66" s="175">
+        <f t="shared" ca="1" si="97"/>
+        <v>2</v>
+      </c>
+      <c r="N66" s="176"/>
+      <c r="O66" s="177"/>
+      <c r="P66" s="169" t="str">
+        <f t="shared" ca="1" si="98"/>
+        <v>2개월 미납</v>
+      </c>
+      <c r="Q66" s="170"/>
+      <c r="R66" s="171"/>
     </row>
     <row r="67" spans="2:18" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B67" s="159"/>
-      <c r="C67" s="160"/>
-      <c r="D67" s="152">
-        <f ca="1">INDIRECT("B"&amp;ROW($B13)+ROW()-28)</f>
-        <v>0</v>
-      </c>
-      <c r="E67" s="153"/>
-      <c r="F67" s="154"/>
-      <c r="G67" s="138">
-        <f t="shared" si="92"/>
-        <v>3</v>
-      </c>
-      <c r="H67" s="139"/>
-      <c r="I67" s="140"/>
-      <c r="J67" s="138">
-        <f ca="1">SUMPRODUCT((YEAR(일자)=$B$64)*(MONTH(일자)&gt;=1)*(MONTH(일자)&lt;=MONTH($M$5))*(계정과목=$D67)*수입)/10000</f>
-        <v>0</v>
-      </c>
-      <c r="K67" s="139"/>
-      <c r="L67" s="140"/>
-      <c r="M67" s="141">
-        <f t="shared" ca="1" si="93"/>
-        <v>3</v>
-      </c>
-      <c r="N67" s="142"/>
-      <c r="O67" s="143"/>
-      <c r="P67" s="148" t="str">
+      <c r="B67" s="147"/>
+      <c r="C67" s="148"/>
+      <c r="D67" s="162">
         <f t="shared" ca="1" si="94"/>
-        <v>3개월 미납</v>
-      </c>
-      <c r="Q67" s="149"/>
-      <c r="R67" s="150"/>
+        <v>0</v>
+      </c>
+      <c r="E67" s="163"/>
+      <c r="F67" s="164"/>
+      <c r="G67" s="151">
+        <f t="shared" si="96"/>
+        <v>2</v>
+      </c>
+      <c r="H67" s="152"/>
+      <c r="I67" s="153"/>
+      <c r="J67" s="151">
+        <f t="shared" ca="1" si="95"/>
+        <v>0</v>
+      </c>
+      <c r="K67" s="152"/>
+      <c r="L67" s="153"/>
+      <c r="M67" s="175">
+        <f t="shared" ca="1" si="97"/>
+        <v>2</v>
+      </c>
+      <c r="N67" s="176"/>
+      <c r="O67" s="177"/>
+      <c r="P67" s="169" t="str">
+        <f t="shared" ca="1" si="98"/>
+        <v>2개월 미납</v>
+      </c>
+      <c r="Q67" s="170"/>
+      <c r="R67" s="171"/>
     </row>
     <row r="68" spans="2:18" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B68" s="159"/>
-      <c r="C68" s="160"/>
-      <c r="D68" s="152">
-        <f ca="1">INDIRECT("B"&amp;ROW($B14)+ROW()-28)</f>
-        <v>0</v>
-      </c>
-      <c r="E68" s="153"/>
-      <c r="F68" s="154"/>
-      <c r="G68" s="138">
-        <f t="shared" si="92"/>
-        <v>3</v>
-      </c>
-      <c r="H68" s="139"/>
-      <c r="I68" s="140"/>
-      <c r="J68" s="138">
-        <f ca="1">SUMPRODUCT((YEAR(일자)=$B$64)*(MONTH(일자)&gt;=1)*(MONTH(일자)&lt;=MONTH($M$5))*(계정과목=$D68)*수입)/10000</f>
-        <v>0</v>
-      </c>
-      <c r="K68" s="139"/>
-      <c r="L68" s="140"/>
-      <c r="M68" s="141">
-        <f t="shared" ca="1" si="93"/>
-        <v>3</v>
-      </c>
-      <c r="N68" s="142"/>
-      <c r="O68" s="143"/>
-      <c r="P68" s="148" t="str">
+      <c r="B68" s="147"/>
+      <c r="C68" s="148"/>
+      <c r="D68" s="162">
         <f t="shared" ca="1" si="94"/>
-        <v>3개월 미납</v>
-      </c>
-      <c r="Q68" s="149"/>
-      <c r="R68" s="150"/>
+        <v>0</v>
+      </c>
+      <c r="E68" s="163"/>
+      <c r="F68" s="164"/>
+      <c r="G68" s="151">
+        <f t="shared" si="96"/>
+        <v>2</v>
+      </c>
+      <c r="H68" s="152"/>
+      <c r="I68" s="153"/>
+      <c r="J68" s="151">
+        <f t="shared" ca="1" si="95"/>
+        <v>0</v>
+      </c>
+      <c r="K68" s="152"/>
+      <c r="L68" s="153"/>
+      <c r="M68" s="175">
+        <f t="shared" ca="1" si="97"/>
+        <v>2</v>
+      </c>
+      <c r="N68" s="176"/>
+      <c r="O68" s="177"/>
+      <c r="P68" s="169" t="str">
+        <f t="shared" ca="1" si="98"/>
+        <v>2개월 미납</v>
+      </c>
+      <c r="Q68" s="170"/>
+      <c r="R68" s="171"/>
     </row>
     <row r="69" spans="2:18" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B69" s="159"/>
-      <c r="C69" s="160"/>
-      <c r="D69" s="152">
-        <f ca="1">INDIRECT("B"&amp;ROW($B15)+ROW()-28)</f>
-        <v>0</v>
-      </c>
-      <c r="E69" s="153"/>
-      <c r="F69" s="154"/>
-      <c r="G69" s="138">
-        <f t="shared" si="92"/>
-        <v>3</v>
-      </c>
-      <c r="H69" s="139"/>
-      <c r="I69" s="140"/>
-      <c r="J69" s="138">
-        <f ca="1">SUMPRODUCT((YEAR(일자)=$B$64)*(MONTH(일자)&gt;=1)*(MONTH(일자)&lt;=MONTH($M$5))*(계정과목=$D69)*수입)/10000</f>
-        <v>0</v>
-      </c>
-      <c r="K69" s="139"/>
-      <c r="L69" s="140"/>
-      <c r="M69" s="141">
-        <f t="shared" ca="1" si="93"/>
-        <v>3</v>
-      </c>
-      <c r="N69" s="142"/>
-      <c r="O69" s="143"/>
-      <c r="P69" s="148" t="str">
+      <c r="B69" s="147"/>
+      <c r="C69" s="148"/>
+      <c r="D69" s="162">
         <f t="shared" ca="1" si="94"/>
-        <v>3개월 미납</v>
-      </c>
-      <c r="Q69" s="149"/>
-      <c r="R69" s="150"/>
+        <v>0</v>
+      </c>
+      <c r="E69" s="163"/>
+      <c r="F69" s="164"/>
+      <c r="G69" s="151">
+        <f t="shared" si="96"/>
+        <v>2</v>
+      </c>
+      <c r="H69" s="152"/>
+      <c r="I69" s="153"/>
+      <c r="J69" s="151">
+        <f t="shared" ca="1" si="95"/>
+        <v>0</v>
+      </c>
+      <c r="K69" s="152"/>
+      <c r="L69" s="153"/>
+      <c r="M69" s="175">
+        <f t="shared" ca="1" si="97"/>
+        <v>2</v>
+      </c>
+      <c r="N69" s="176"/>
+      <c r="O69" s="177"/>
+      <c r="P69" s="169" t="str">
+        <f t="shared" ca="1" si="98"/>
+        <v>2개월 미납</v>
+      </c>
+      <c r="Q69" s="170"/>
+      <c r="R69" s="171"/>
     </row>
     <row r="70" spans="2:18" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B70" s="82"/>
@@ -7211,113 +6887,201 @@
       <c r="R71" s="92"/>
     </row>
     <row r="72" spans="2:18" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B72" s="161"/>
-      <c r="C72" s="162"/>
-      <c r="D72" s="115">
+      <c r="B72" s="149"/>
+      <c r="C72" s="150"/>
+      <c r="D72" s="190">
         <f ca="1">INDIRECT("B"&amp;ROW($B16)+ROW()-28)</f>
         <v>0</v>
       </c>
-      <c r="E72" s="116"/>
-      <c r="F72" s="117"/>
-      <c r="G72" s="118">
-        <f t="shared" si="92"/>
-        <v>3</v>
-      </c>
-      <c r="H72" s="119"/>
-      <c r="I72" s="120"/>
-      <c r="J72" s="118">
+      <c r="E72" s="191"/>
+      <c r="F72" s="192"/>
+      <c r="G72" s="193">
+        <f t="shared" si="96"/>
+        <v>2</v>
+      </c>
+      <c r="H72" s="194"/>
+      <c r="I72" s="195"/>
+      <c r="J72" s="193">
         <f ca="1">SUMPRODUCT((YEAR(일자)=$B$64)*(MONTH(일자)&gt;=1)*(MONTH(일자)&lt;=MONTH($M$5))*(계정과목=$D72)*수입)/10000</f>
         <v>0</v>
       </c>
-      <c r="K72" s="119"/>
-      <c r="L72" s="120"/>
-      <c r="M72" s="121">
-        <f t="shared" ca="1" si="93"/>
-        <v>3</v>
-      </c>
-      <c r="N72" s="122"/>
-      <c r="O72" s="123"/>
-      <c r="P72" s="124" t="str">
-        <f t="shared" ca="1" si="94"/>
-        <v>3개월 미납</v>
-      </c>
-      <c r="Q72" s="125"/>
-      <c r="R72" s="126"/>
+      <c r="K72" s="194"/>
+      <c r="L72" s="195"/>
+      <c r="M72" s="196">
+        <f t="shared" ca="1" si="97"/>
+        <v>2</v>
+      </c>
+      <c r="N72" s="197"/>
+      <c r="O72" s="198"/>
+      <c r="P72" s="199" t="str">
+        <f t="shared" ca="1" si="98"/>
+        <v>2개월 미납</v>
+      </c>
+      <c r="Q72" s="200"/>
+      <c r="R72" s="201"/>
     </row>
     <row r="73" spans="2:18" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B73" s="112" t="s">
-        <v>47</v>
-      </c>
-      <c r="C73" s="113"/>
-      <c r="D73" s="113"/>
-      <c r="E73" s="113"/>
-      <c r="F73" s="114"/>
-      <c r="G73" s="144">
+      <c r="B73" s="187" t="s">
+        <v>43</v>
+      </c>
+      <c r="C73" s="188"/>
+      <c r="D73" s="188"/>
+      <c r="E73" s="188"/>
+      <c r="F73" s="189"/>
+      <c r="G73" s="165">
         <f>SUM(G64:I72)</f>
-        <v>21</v>
-      </c>
-      <c r="H73" s="145"/>
-      <c r="I73" s="146"/>
-      <c r="J73" s="144">
+        <v>14</v>
+      </c>
+      <c r="H73" s="166"/>
+      <c r="I73" s="167"/>
+      <c r="J73" s="165">
         <f ca="1">SUM(J64:L72)</f>
         <v>0</v>
       </c>
-      <c r="K73" s="145"/>
-      <c r="L73" s="146"/>
-      <c r="M73" s="106">
+      <c r="K73" s="166"/>
+      <c r="L73" s="167"/>
+      <c r="M73" s="181">
         <f ca="1">SUM(M64:O72)</f>
-        <v>21</v>
-      </c>
-      <c r="N73" s="107"/>
-      <c r="O73" s="108"/>
-      <c r="P73" s="109" t="str">
+        <v>14</v>
+      </c>
+      <c r="N73" s="182"/>
+      <c r="O73" s="183"/>
+      <c r="P73" s="184" t="str">
         <f ca="1">IFERROR(SUMPRODUCT(VALUE(LEFT(P64:P72,LEN(P64:P72)-LEN(RIGHT(P64:P72,5)))))&amp;"개","")</f>
         <v/>
       </c>
-      <c r="Q73" s="110"/>
-      <c r="R73" s="111"/>
+      <c r="Q73" s="185"/>
+      <c r="R73" s="186"/>
     </row>
     <row r="75" spans="2:18" x14ac:dyDescent="0.15">
-      <c r="B75" s="158"/>
-      <c r="C75" s="158"/>
+      <c r="B75" s="146"/>
+      <c r="C75" s="146"/>
     </row>
   </sheetData>
   <mergeCells count="187">
-    <mergeCell ref="B51:B52"/>
-    <mergeCell ref="O51:O52"/>
-    <mergeCell ref="P51:P52"/>
-    <mergeCell ref="Q51:Q52"/>
-    <mergeCell ref="R51:R52"/>
-    <mergeCell ref="B45:B46"/>
-    <mergeCell ref="O45:O46"/>
-    <mergeCell ref="P45:P46"/>
-    <mergeCell ref="Q45:Q46"/>
-    <mergeCell ref="R45:R46"/>
-    <mergeCell ref="B49:B50"/>
-    <mergeCell ref="O49:O50"/>
-    <mergeCell ref="P49:P50"/>
-    <mergeCell ref="Q49:Q50"/>
-    <mergeCell ref="R49:R50"/>
-    <mergeCell ref="U39:U40"/>
-    <mergeCell ref="B41:B42"/>
-    <mergeCell ref="O41:O42"/>
-    <mergeCell ref="P41:P42"/>
-    <mergeCell ref="Q41:Q42"/>
-    <mergeCell ref="R41:R42"/>
-    <mergeCell ref="B43:B44"/>
-    <mergeCell ref="O43:O44"/>
-    <mergeCell ref="P43:P44"/>
-    <mergeCell ref="Q43:Q44"/>
-    <mergeCell ref="R43:R44"/>
-    <mergeCell ref="B25:B26"/>
-    <mergeCell ref="O25:O26"/>
-    <mergeCell ref="P25:P26"/>
-    <mergeCell ref="Q25:Q26"/>
-    <mergeCell ref="R25:R26"/>
-    <mergeCell ref="U25:U26"/>
-    <mergeCell ref="U27:U28"/>
-    <mergeCell ref="U29:U30"/>
-    <mergeCell ref="U31:U32"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="O17:O18"/>
+    <mergeCell ref="P17:P18"/>
+    <mergeCell ref="Q17:Q18"/>
+    <mergeCell ref="R17:R18"/>
+    <mergeCell ref="M73:O73"/>
+    <mergeCell ref="P73:R73"/>
+    <mergeCell ref="B73:F73"/>
+    <mergeCell ref="D72:F72"/>
+    <mergeCell ref="G72:I72"/>
+    <mergeCell ref="J72:L72"/>
+    <mergeCell ref="M72:O72"/>
+    <mergeCell ref="P72:R72"/>
+    <mergeCell ref="B63:C63"/>
+    <mergeCell ref="D63:F63"/>
+    <mergeCell ref="G63:I63"/>
+    <mergeCell ref="J63:L63"/>
+    <mergeCell ref="M63:O63"/>
+    <mergeCell ref="J64:L64"/>
+    <mergeCell ref="M64:O64"/>
+    <mergeCell ref="J67:L67"/>
+    <mergeCell ref="M67:O67"/>
+    <mergeCell ref="J73:L73"/>
+    <mergeCell ref="U19:U20"/>
+    <mergeCell ref="M62:R62"/>
+    <mergeCell ref="P67:R67"/>
+    <mergeCell ref="P63:R63"/>
+    <mergeCell ref="D69:F69"/>
+    <mergeCell ref="G69:I69"/>
+    <mergeCell ref="J69:L69"/>
+    <mergeCell ref="M69:O69"/>
+    <mergeCell ref="P69:R69"/>
+    <mergeCell ref="D68:F68"/>
+    <mergeCell ref="G68:I68"/>
+    <mergeCell ref="J68:L68"/>
+    <mergeCell ref="M68:O68"/>
+    <mergeCell ref="P68:R68"/>
+    <mergeCell ref="P64:R64"/>
+    <mergeCell ref="D65:F65"/>
+    <mergeCell ref="G65:I65"/>
+    <mergeCell ref="J65:L65"/>
+    <mergeCell ref="M65:O65"/>
+    <mergeCell ref="P65:R65"/>
+    <mergeCell ref="D66:F66"/>
+    <mergeCell ref="J66:L66"/>
+    <mergeCell ref="M66:O66"/>
+    <mergeCell ref="P66:R66"/>
+    <mergeCell ref="B75:C75"/>
+    <mergeCell ref="B68:C68"/>
+    <mergeCell ref="B69:C69"/>
+    <mergeCell ref="B72:C72"/>
+    <mergeCell ref="G66:I66"/>
+    <mergeCell ref="B64:C64"/>
+    <mergeCell ref="B65:C65"/>
+    <mergeCell ref="B66:C66"/>
+    <mergeCell ref="B67:C67"/>
+    <mergeCell ref="D64:F64"/>
+    <mergeCell ref="G64:I64"/>
+    <mergeCell ref="D67:F67"/>
+    <mergeCell ref="G67:I67"/>
+    <mergeCell ref="G73:I73"/>
+    <mergeCell ref="U23:U24"/>
+    <mergeCell ref="U11:U12"/>
+    <mergeCell ref="U21:U22"/>
+    <mergeCell ref="U13:U14"/>
+    <mergeCell ref="U15:U16"/>
+    <mergeCell ref="U17:U18"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="O19:O20"/>
+    <mergeCell ref="P19:P20"/>
+    <mergeCell ref="Q19:Q20"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="P11:P12"/>
+    <mergeCell ref="Q11:Q12"/>
+    <mergeCell ref="O11:O12"/>
+    <mergeCell ref="R21:R22"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="O13:O14"/>
+    <mergeCell ref="P13:P14"/>
+    <mergeCell ref="Q13:Q14"/>
+    <mergeCell ref="R13:R14"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="O15:O16"/>
+    <mergeCell ref="P15:P16"/>
+    <mergeCell ref="Q15:Q16"/>
+    <mergeCell ref="M2:O2"/>
+    <mergeCell ref="R19:R20"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="O21:O22"/>
+    <mergeCell ref="P21:P22"/>
+    <mergeCell ref="Q21:Q22"/>
+    <mergeCell ref="B23:B24"/>
+    <mergeCell ref="O23:O24"/>
+    <mergeCell ref="P23:P24"/>
+    <mergeCell ref="Q23:Q24"/>
+    <mergeCell ref="R23:R24"/>
+    <mergeCell ref="M5:R5"/>
+    <mergeCell ref="M3:O3"/>
+    <mergeCell ref="H2:J2"/>
+    <mergeCell ref="H3:J3"/>
+    <mergeCell ref="K2:L2"/>
+    <mergeCell ref="K3:L3"/>
+    <mergeCell ref="P2:R2"/>
+    <mergeCell ref="P3:R3"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="C6:O6"/>
+    <mergeCell ref="P6:R6"/>
+    <mergeCell ref="R11:R12"/>
+    <mergeCell ref="R15:R16"/>
+    <mergeCell ref="O33:O34"/>
+    <mergeCell ref="P33:P34"/>
+    <mergeCell ref="Q33:Q34"/>
+    <mergeCell ref="R33:R34"/>
+    <mergeCell ref="B29:B30"/>
+    <mergeCell ref="O29:O30"/>
+    <mergeCell ref="P29:P30"/>
+    <mergeCell ref="Q29:Q30"/>
+    <mergeCell ref="R29:R30"/>
+    <mergeCell ref="B31:B32"/>
+    <mergeCell ref="O31:O32"/>
+    <mergeCell ref="P31:P32"/>
+    <mergeCell ref="Q31:Q32"/>
+    <mergeCell ref="R31:R32"/>
     <mergeCell ref="U33:U34"/>
     <mergeCell ref="U35:U36"/>
     <mergeCell ref="U37:U38"/>
@@ -7342,282 +7106,51 @@
     <mergeCell ref="Q37:Q38"/>
     <mergeCell ref="R37:R38"/>
     <mergeCell ref="B33:B34"/>
-    <mergeCell ref="O33:O34"/>
-    <mergeCell ref="P33:P34"/>
-    <mergeCell ref="Q33:Q34"/>
-    <mergeCell ref="R33:R34"/>
-    <mergeCell ref="B29:B30"/>
-    <mergeCell ref="O29:O30"/>
-    <mergeCell ref="P29:P30"/>
-    <mergeCell ref="Q29:Q30"/>
-    <mergeCell ref="R29:R30"/>
-    <mergeCell ref="B31:B32"/>
-    <mergeCell ref="O31:O32"/>
-    <mergeCell ref="P31:P32"/>
-    <mergeCell ref="Q31:Q32"/>
-    <mergeCell ref="R31:R32"/>
+    <mergeCell ref="B25:B26"/>
+    <mergeCell ref="O25:O26"/>
+    <mergeCell ref="P25:P26"/>
+    <mergeCell ref="Q25:Q26"/>
+    <mergeCell ref="R25:R26"/>
+    <mergeCell ref="U25:U26"/>
+    <mergeCell ref="U27:U28"/>
+    <mergeCell ref="U29:U30"/>
+    <mergeCell ref="U31:U32"/>
     <mergeCell ref="B27:B28"/>
     <mergeCell ref="O27:O28"/>
     <mergeCell ref="P27:P28"/>
     <mergeCell ref="Q27:Q28"/>
     <mergeCell ref="R27:R28"/>
-    <mergeCell ref="M2:O2"/>
-    <mergeCell ref="R19:R20"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="O21:O22"/>
-    <mergeCell ref="P21:P22"/>
-    <mergeCell ref="Q21:Q22"/>
-    <mergeCell ref="B23:B24"/>
-    <mergeCell ref="O23:O24"/>
-    <mergeCell ref="P23:P24"/>
-    <mergeCell ref="Q23:Q24"/>
-    <mergeCell ref="R23:R24"/>
-    <mergeCell ref="M5:R5"/>
-    <mergeCell ref="M3:O3"/>
-    <mergeCell ref="H2:J2"/>
-    <mergeCell ref="H3:J3"/>
-    <mergeCell ref="K2:L2"/>
-    <mergeCell ref="K3:L3"/>
-    <mergeCell ref="P2:R2"/>
-    <mergeCell ref="P3:R3"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="C6:O6"/>
-    <mergeCell ref="P6:R6"/>
-    <mergeCell ref="R11:R12"/>
-    <mergeCell ref="R15:R16"/>
-    <mergeCell ref="U23:U24"/>
-    <mergeCell ref="U11:U12"/>
-    <mergeCell ref="U21:U22"/>
-    <mergeCell ref="U13:U14"/>
-    <mergeCell ref="U15:U16"/>
-    <mergeCell ref="U17:U18"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="O19:O20"/>
-    <mergeCell ref="P19:P20"/>
-    <mergeCell ref="Q19:Q20"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="P11:P12"/>
-    <mergeCell ref="Q11:Q12"/>
-    <mergeCell ref="O11:O12"/>
-    <mergeCell ref="R21:R22"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="O13:O14"/>
-    <mergeCell ref="P13:P14"/>
-    <mergeCell ref="Q13:Q14"/>
-    <mergeCell ref="R13:R14"/>
-    <mergeCell ref="B15:B16"/>
-    <mergeCell ref="O15:O16"/>
-    <mergeCell ref="P15:P16"/>
-    <mergeCell ref="Q15:Q16"/>
-    <mergeCell ref="B75:C75"/>
-    <mergeCell ref="B68:C68"/>
-    <mergeCell ref="B69:C69"/>
-    <mergeCell ref="B72:C72"/>
-    <mergeCell ref="G66:I66"/>
-    <mergeCell ref="B64:C64"/>
-    <mergeCell ref="B65:C65"/>
-    <mergeCell ref="B66:C66"/>
-    <mergeCell ref="B67:C67"/>
-    <mergeCell ref="D64:F64"/>
-    <mergeCell ref="G64:I64"/>
-    <mergeCell ref="D67:F67"/>
-    <mergeCell ref="G67:I67"/>
-    <mergeCell ref="G73:I73"/>
-    <mergeCell ref="U19:U20"/>
-    <mergeCell ref="M62:R62"/>
-    <mergeCell ref="P67:R67"/>
-    <mergeCell ref="P63:R63"/>
-    <mergeCell ref="D69:F69"/>
-    <mergeCell ref="G69:I69"/>
-    <mergeCell ref="J69:L69"/>
-    <mergeCell ref="M69:O69"/>
-    <mergeCell ref="P69:R69"/>
-    <mergeCell ref="D68:F68"/>
-    <mergeCell ref="G68:I68"/>
-    <mergeCell ref="J68:L68"/>
-    <mergeCell ref="M68:O68"/>
-    <mergeCell ref="P68:R68"/>
-    <mergeCell ref="P64:R64"/>
-    <mergeCell ref="D65:F65"/>
-    <mergeCell ref="G65:I65"/>
-    <mergeCell ref="J65:L65"/>
-    <mergeCell ref="M65:O65"/>
-    <mergeCell ref="P65:R65"/>
-    <mergeCell ref="D66:F66"/>
-    <mergeCell ref="J66:L66"/>
-    <mergeCell ref="M66:O66"/>
-    <mergeCell ref="P66:R66"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="O17:O18"/>
-    <mergeCell ref="P17:P18"/>
-    <mergeCell ref="Q17:Q18"/>
-    <mergeCell ref="R17:R18"/>
-    <mergeCell ref="M73:O73"/>
-    <mergeCell ref="P73:R73"/>
-    <mergeCell ref="B73:F73"/>
-    <mergeCell ref="D72:F72"/>
-    <mergeCell ref="G72:I72"/>
-    <mergeCell ref="J72:L72"/>
-    <mergeCell ref="M72:O72"/>
-    <mergeCell ref="P72:R72"/>
-    <mergeCell ref="B63:C63"/>
-    <mergeCell ref="D63:F63"/>
-    <mergeCell ref="G63:I63"/>
-    <mergeCell ref="J63:L63"/>
-    <mergeCell ref="M63:O63"/>
-    <mergeCell ref="J64:L64"/>
-    <mergeCell ref="M64:O64"/>
-    <mergeCell ref="J67:L67"/>
-    <mergeCell ref="M67:O67"/>
-    <mergeCell ref="J73:L73"/>
+    <mergeCell ref="U39:U40"/>
+    <mergeCell ref="B41:B42"/>
+    <mergeCell ref="O41:O42"/>
+    <mergeCell ref="P41:P42"/>
+    <mergeCell ref="Q41:Q42"/>
+    <mergeCell ref="R41:R42"/>
+    <mergeCell ref="B43:B44"/>
+    <mergeCell ref="O43:O44"/>
+    <mergeCell ref="P43:P44"/>
+    <mergeCell ref="Q43:Q44"/>
+    <mergeCell ref="R43:R44"/>
+    <mergeCell ref="B51:B52"/>
+    <mergeCell ref="O51:O52"/>
+    <mergeCell ref="P51:P52"/>
+    <mergeCell ref="Q51:Q52"/>
+    <mergeCell ref="R51:R52"/>
+    <mergeCell ref="B45:B46"/>
+    <mergeCell ref="O45:O46"/>
+    <mergeCell ref="P45:P46"/>
+    <mergeCell ref="Q45:Q46"/>
+    <mergeCell ref="R45:R46"/>
+    <mergeCell ref="B49:B50"/>
+    <mergeCell ref="O49:O50"/>
+    <mergeCell ref="P49:P50"/>
+    <mergeCell ref="Q49:Q50"/>
+    <mergeCell ref="R49:R50"/>
   </mergeCells>
   <phoneticPr fontId="18" type="noConversion"/>
-  <conditionalFormatting sqref="C11:N26">
-    <cfRule type="expression" dxfId="59" priority="58" stopIfTrue="1">
+  <conditionalFormatting sqref="C11:N52">
+    <cfRule type="expression" dxfId="11" priority="1" stopIfTrue="1">
       <formula>AND(MOD(ROW(),2)=1,C11&gt;0)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="58" priority="59" stopIfTrue="1">
-      <formula>MONTH($M$5)&gt;C$7</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="57" priority="60" stopIfTrue="1">
-      <formula>MONTH($M$5)=C$7</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C27:N28">
-    <cfRule type="expression" dxfId="56" priority="49" stopIfTrue="1">
-      <formula>AND(MOD(ROW(),2)=1,C27&gt;0)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="55" priority="50" stopIfTrue="1">
-      <formula>MONTH($M$5)&gt;C$7</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="54" priority="51" stopIfTrue="1">
-      <formula>MONTH($M$5)=C$7</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C31:N32">
-    <cfRule type="expression" dxfId="50" priority="43" stopIfTrue="1">
-      <formula>AND(MOD(ROW(),2)=1,C31&gt;0)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="49" priority="44" stopIfTrue="1">
-      <formula>MONTH($M$5)&gt;C$7</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="48" priority="45" stopIfTrue="1">
-      <formula>MONTH($M$5)=C$7</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C33:N34">
-    <cfRule type="expression" dxfId="47" priority="40" stopIfTrue="1">
-      <formula>AND(MOD(ROW(),2)=1,C33&gt;0)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="46" priority="41" stopIfTrue="1">
-      <formula>MONTH($M$5)&gt;C$7</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="45" priority="42" stopIfTrue="1">
-      <formula>MONTH($M$5)=C$7</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C35:N36">
-    <cfRule type="expression" dxfId="44" priority="37" stopIfTrue="1">
-      <formula>AND(MOD(ROW(),2)=1,C35&gt;0)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="43" priority="38" stopIfTrue="1">
-      <formula>MONTH($M$5)&gt;C$7</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="42" priority="39" stopIfTrue="1">
-      <formula>MONTH($M$5)=C$7</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C37:N38">
-    <cfRule type="expression" dxfId="41" priority="34" stopIfTrue="1">
-      <formula>AND(MOD(ROW(),2)=1,C37&gt;0)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="40" priority="35" stopIfTrue="1">
-      <formula>MONTH($M$5)&gt;C$7</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="39" priority="36" stopIfTrue="1">
-      <formula>MONTH($M$5)=C$7</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C39:N40">
-    <cfRule type="expression" dxfId="38" priority="31" stopIfTrue="1">
-      <formula>AND(MOD(ROW(),2)=1,C39&gt;0)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="37" priority="32" stopIfTrue="1">
-      <formula>MONTH($M$5)&gt;C$7</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="36" priority="33" stopIfTrue="1">
-      <formula>MONTH($M$5)=C$7</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C29:N30">
-    <cfRule type="expression" dxfId="32" priority="22" stopIfTrue="1">
-      <formula>AND(MOD(ROW(),2)=1,C29&gt;0)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="31" priority="23" stopIfTrue="1">
-      <formula>MONTH($M$5)&gt;C$7</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="30" priority="24" stopIfTrue="1">
-      <formula>MONTH($M$5)=C$7</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C41:N42">
-    <cfRule type="expression" dxfId="29" priority="19" stopIfTrue="1">
-      <formula>AND(MOD(ROW(),2)=1,C41&gt;0)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="28" priority="20" stopIfTrue="1">
-      <formula>MONTH($M$5)&gt;C$7</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="27" priority="21" stopIfTrue="1">
-      <formula>MONTH($M$5)=C$7</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C43:N44">
-    <cfRule type="expression" dxfId="26" priority="16" stopIfTrue="1">
-      <formula>AND(MOD(ROW(),2)=1,C43&gt;0)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="25" priority="17" stopIfTrue="1">
-      <formula>MONTH($M$5)&gt;C$7</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="24" priority="18" stopIfTrue="1">
-      <formula>MONTH($M$5)=C$7</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C45:N46">
-    <cfRule type="expression" dxfId="23" priority="13" stopIfTrue="1">
-      <formula>AND(MOD(ROW(),2)=1,C45&gt;0)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="22" priority="14" stopIfTrue="1">
-      <formula>MONTH($M$5)&gt;C$7</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="21" priority="15" stopIfTrue="1">
-      <formula>MONTH($M$5)=C$7</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C47:N48">
-    <cfRule type="expression" dxfId="20" priority="10" stopIfTrue="1">
-      <formula>AND(MOD(ROW(),2)=1,C47&gt;0)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="19" priority="11" stopIfTrue="1">
-      <formula>MONTH($M$5)&gt;C$7</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="18" priority="12" stopIfTrue="1">
-      <formula>MONTH($M$5)=C$7</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C49:N50">
-    <cfRule type="expression" dxfId="17" priority="7" stopIfTrue="1">
-      <formula>AND(MOD(ROW(),2)=1,C49&gt;0)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="16" priority="8" stopIfTrue="1">
-      <formula>MONTH($M$5)&gt;C$7</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="15" priority="9" stopIfTrue="1">
-      <formula>MONTH($M$5)=C$7</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C51:N52">
-    <cfRule type="expression" dxfId="11" priority="1" stopIfTrue="1">
-      <formula>AND(MOD(ROW(),2)=1,C51&gt;0)</formula>
     </cfRule>
     <cfRule type="expression" dxfId="10" priority="2" stopIfTrue="1">
       <formula>MONTH($M$5)&gt;C$7</formula>
@@ -7689,7 +7222,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <sheetPr codeName="Sheet3"/>
+  <sheetPr codeName="Sheet3" filterMode="1"/>
   <dimension ref="A1:R101"/>
   <sheetViews>
     <sheetView showGridLines="0" showZeros="0" workbookViewId="0">
@@ -7743,7 +7276,7 @@
       <c r="C3" s="3"/>
       <c r="D3" s="3"/>
       <c r="E3" s="79" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
@@ -7767,7 +7300,7 @@
       </c>
       <c r="G4" s="14">
         <f>SUBTOTAL(9,G6:G1247)</f>
-        <v>129000</v>
+        <v>79000</v>
       </c>
       <c r="H4" s="4"/>
       <c r="J4" s="15"/>
@@ -7778,16 +7311,16 @@
     </row>
     <row r="5" spans="1:18" s="7" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="34" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B5" s="30" t="s">
         <v>0</v>
       </c>
       <c r="C5" s="31" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" s="31" t="s">
         <v>20</v>
-      </c>
-      <c r="D5" s="31" t="s">
-        <v>21</v>
       </c>
       <c r="E5" s="31" t="s">
         <v>1</v>
@@ -7814,10 +7347,10 @@
         <v>10</v>
       </c>
       <c r="D6" s="23" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E6" s="80" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="F6" s="24">
         <v>650000</v>
@@ -7830,7 +7363,7 @@
     </row>
     <row r="7" spans="1:18" s="7" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="21">
-        <f t="shared" ref="A7:A32" si="0">IF(B7="","",A6+1)</f>
+        <f t="shared" ref="A7:A15" si="0">IF(B7="","",A6+1)</f>
         <v>2</v>
       </c>
       <c r="B7" s="22">
@@ -7840,17 +7373,17 @@
         <v>10</v>
       </c>
       <c r="D7" s="23" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="E7" s="80" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="F7" s="24">
         <v>20000</v>
       </c>
       <c r="G7" s="25"/>
       <c r="H7" s="27">
-        <f t="shared" ref="H7:H32" si="1">IF(AND(F7="",G7=""),"",H6+F7-G7)</f>
+        <f t="shared" ref="H7:H15" si="1">IF(AND(F7="",G7=""),"",H6+F7-G7)</f>
         <v>670000</v>
       </c>
     </row>
@@ -7866,10 +7399,10 @@
         <v>10</v>
       </c>
       <c r="D8" s="23" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="E8" s="80" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="F8" s="24">
         <v>40000</v>
@@ -7892,10 +7425,10 @@
         <v>10</v>
       </c>
       <c r="D9" s="23" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E9" s="80" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="F9" s="24">
         <v>640000</v>
@@ -7921,7 +7454,7 @@
         <v>12</v>
       </c>
       <c r="E10" s="80" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="F10" s="24">
         <v>150000</v>
@@ -7944,10 +7477,10 @@
         <v>10</v>
       </c>
       <c r="D11" s="23" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E11" s="80" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="F11" s="24">
         <v>1700</v>
@@ -7958,7 +7491,7 @@
         <v>1501700</v>
       </c>
     </row>
-    <row r="12" spans="1:18" s="7" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:18" s="7" customFormat="1" ht="17.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="21">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -7973,7 +7506,7 @@
         <v>14</v>
       </c>
       <c r="E12" s="80" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="F12" s="24"/>
       <c r="G12" s="28">
@@ -7996,10 +7529,10 @@
         <v>10</v>
       </c>
       <c r="D13" s="23" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="E13" s="80" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="F13" s="24">
         <v>40000</v>
@@ -8016,16 +7549,16 @@
         <v>9</v>
       </c>
       <c r="B14" s="22">
-        <v>45717</v>
+        <v>45689</v>
       </c>
       <c r="C14" s="16" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="23" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="E14" s="80" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="F14" s="24">
         <v>40000</v>
@@ -8042,16 +7575,16 @@
         <v>10</v>
       </c>
       <c r="B15" s="22">
-        <v>45718</v>
+        <v>45690</v>
       </c>
       <c r="C15" s="16" t="s">
         <v>10</v>
       </c>
       <c r="D15" s="23" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="E15" s="80" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="F15" s="24">
         <v>40000</v>
@@ -8067,16 +7600,16 @@
         <v>11</v>
       </c>
       <c r="B16" s="22">
-        <v>45719</v>
+        <v>45691</v>
       </c>
       <c r="C16" s="16" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="D16" s="23" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="E16" s="80" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="F16" s="24"/>
       <c r="G16" s="25">
@@ -9343,7 +8876,14 @@
       <c r="H101" s="27"/>
     </row>
   </sheetData>
-  <autoFilter ref="A5:H16" xr:uid="{00000000-0009-0000-0000-000001000000}"/>
+  <autoFilter ref="A5:H16" xr:uid="{00000000-0009-0000-0000-000001000000}">
+    <filterColumn colId="2">
+      <filters>
+        <filter val="수입"/>
+        <filter val="지출"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B6:G32">
     <sortCondition ref="B6:B32"/>
   </sortState>
@@ -9384,7 +8924,7 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C6:C100" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>항목</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D6:D100" xr:uid="{00000000-0002-0000-0100-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D6:D15 D17:D100 D16" xr:uid="{00000000-0002-0000-0100-000001000000}">
       <formula1>INDIRECT("과목!"&amp;HLOOKUP($C6,계정범위,2,FALSE))</formula1>
     </dataValidation>
   </dataValidations>
@@ -9429,7 +8969,7 @@
   <dimension ref="A1:C31"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -9456,11 +8996,11 @@
     <row r="3" spans="1:3" s="17" customFormat="1" ht="11.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="18" t="str">
         <f>"a4:a"&amp;COUNTA(A4:A50)+3</f>
-        <v>a4:a28</v>
+        <v>a4:a30</v>
       </c>
       <c r="B3" s="18" t="str">
         <f>"b4:b"&amp;COUNTA(B4:B50)+3</f>
-        <v>b4:b11</v>
+        <v>b4:b31</v>
       </c>
       <c r="C3" s="18" t="str">
         <f>"c4:c"&amp;COUNTA(C4:C50)+3</f>
@@ -9469,7 +9009,7 @@
     </row>
     <row r="4" spans="1:3" s="17" customFormat="1" ht="12.75" x14ac:dyDescent="0.15">
       <c r="A4" s="19" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="B4" s="19" t="s">
         <v>11</v>
@@ -9480,180 +9020,235 @@
     </row>
     <row r="5" spans="1:3" s="17" customFormat="1" ht="12.75" x14ac:dyDescent="0.15">
       <c r="A5" s="19" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="B5" s="19" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C5" s="19" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="6" spans="1:3" s="17" customFormat="1" ht="12.75" x14ac:dyDescent="0.15">
       <c r="A6" s="19" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="B6" s="19" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C6" s="20"/>
     </row>
     <row r="7" spans="1:3" s="17" customFormat="1" ht="12.75" x14ac:dyDescent="0.15">
       <c r="A7" s="19" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="B7" s="19" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C7" s="20"/>
     </row>
     <row r="8" spans="1:3" s="17" customFormat="1" ht="12.75" x14ac:dyDescent="0.15">
       <c r="A8" s="19" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="B8" s="19" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C8" s="20"/>
     </row>
     <row r="9" spans="1:3" s="17" customFormat="1" ht="12.75" x14ac:dyDescent="0.15">
       <c r="A9" s="19" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="B9" s="19" t="s">
-        <v>43</v>
+        <v>90</v>
       </c>
       <c r="C9" s="20"/>
     </row>
     <row r="10" spans="1:3" s="17" customFormat="1" ht="12.75" x14ac:dyDescent="0.15">
       <c r="A10" s="19" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="B10" s="19" t="s">
-        <v>15</v>
+        <v>108</v>
       </c>
       <c r="C10" s="20"/>
     </row>
     <row r="11" spans="1:3" s="17" customFormat="1" ht="12.75" x14ac:dyDescent="0.15">
       <c r="A11" s="19" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="B11" s="19" t="s">
-        <v>46</v>
+        <v>89</v>
       </c>
       <c r="C11" s="20"/>
     </row>
     <row r="12" spans="1:3" s="17" customFormat="1" ht="12.75" x14ac:dyDescent="0.15">
       <c r="A12" s="19" t="s">
-        <v>78</v>
-      </c>
-      <c r="B12" s="19"/>
+        <v>74</v>
+      </c>
+      <c r="B12" s="19" t="s">
+        <v>91</v>
+      </c>
       <c r="C12" s="20"/>
     </row>
     <row r="13" spans="1:3" s="17" customFormat="1" ht="12.75" x14ac:dyDescent="0.15">
       <c r="A13" s="19" t="s">
-        <v>79</v>
-      </c>
-      <c r="B13" s="19"/>
+        <v>75</v>
+      </c>
+      <c r="B13" s="19" t="s">
+        <v>92</v>
+      </c>
       <c r="C13" s="20"/>
     </row>
     <row r="14" spans="1:3" s="17" customFormat="1" ht="12.75" x14ac:dyDescent="0.15">
       <c r="A14" s="19" t="s">
-        <v>80</v>
-      </c>
-      <c r="B14" s="19"/>
+        <v>76</v>
+      </c>
+      <c r="B14" s="19" t="s">
+        <v>93</v>
+      </c>
       <c r="C14" s="20"/>
     </row>
     <row r="15" spans="1:3" s="17" customFormat="1" ht="12.75" x14ac:dyDescent="0.15">
       <c r="A15" s="19" t="s">
-        <v>81</v>
-      </c>
-      <c r="B15" s="19"/>
+        <v>77</v>
+      </c>
+      <c r="B15" s="19" t="s">
+        <v>94</v>
+      </c>
       <c r="C15" s="20"/>
     </row>
     <row r="16" spans="1:3" s="17" customFormat="1" ht="12.75" x14ac:dyDescent="0.15">
       <c r="A16" s="19" t="s">
-        <v>82</v>
-      </c>
-      <c r="B16" s="19"/>
+        <v>78</v>
+      </c>
+      <c r="B16" s="19" t="s">
+        <v>95</v>
+      </c>
       <c r="C16" s="20"/>
     </row>
     <row r="17" spans="1:3" s="17" customFormat="1" ht="12.75" x14ac:dyDescent="0.15">
       <c r="A17" s="19" t="s">
-        <v>83</v>
-      </c>
-      <c r="B17" s="19"/>
+        <v>79</v>
+      </c>
+      <c r="B17" s="19" t="s">
+        <v>96</v>
+      </c>
       <c r="C17" s="20"/>
     </row>
     <row r="18" spans="1:3" s="17" customFormat="1" ht="12.75" x14ac:dyDescent="0.15">
       <c r="A18" s="19" t="s">
-        <v>84</v>
-      </c>
-      <c r="B18" s="19"/>
+        <v>80</v>
+      </c>
+      <c r="B18" s="19" t="s">
+        <v>97</v>
+      </c>
       <c r="C18" s="20"/>
     </row>
     <row r="19" spans="1:3" s="17" customFormat="1" ht="12.75" x14ac:dyDescent="0.15">
       <c r="A19" s="19" t="s">
-        <v>85</v>
-      </c>
-      <c r="B19" s="19"/>
+        <v>81</v>
+      </c>
+      <c r="B19" s="19" t="s">
+        <v>98</v>
+      </c>
       <c r="C19" s="20"/>
     </row>
     <row r="20" spans="1:3" s="17" customFormat="1" ht="12.75" x14ac:dyDescent="0.15">
       <c r="A20" s="19" t="s">
+        <v>82</v>
+      </c>
+      <c r="B20" s="19" t="s">
+        <v>99</v>
+      </c>
+      <c r="C20" s="20"/>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A21" s="96" t="s">
+        <v>83</v>
+      </c>
+      <c r="B21" s="19" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A22" s="96" t="s">
+        <v>84</v>
+      </c>
+      <c r="B22" s="19" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A23" s="96" t="s">
+        <v>85</v>
+      </c>
+      <c r="B23" s="19" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A24" s="96" t="s">
         <v>86</v>
       </c>
-      <c r="B20" s="19"/>
-      <c r="C20" s="20"/>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A21" s="201" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A22" s="201" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A23" s="201" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A24" s="201" t="s">
-        <v>90</v>
+      <c r="B24" s="19" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A25" s="19" t="s">
         <v>12</v>
       </c>
+      <c r="B25" s="19" t="s">
+        <v>104</v>
+      </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A26" s="19" t="s">
-        <v>39</v>
+        <v>88</v>
+      </c>
+      <c r="B26" s="19" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A27" s="19" t="s">
-        <v>18</v>
+        <v>17</v>
+      </c>
+      <c r="B27" s="19" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A28" s="19" t="s">
-        <v>16</v>
+        <v>15</v>
+      </c>
+      <c r="B28" s="19" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A29" s="19"/>
+      <c r="A29" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="B29" s="19" t="s">
+        <v>110</v>
+      </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A30" s="19"/>
+      <c r="A30" s="19" t="s">
+        <v>87</v>
+      </c>
+      <c r="B30" s="19" t="s">
+        <v>109</v>
+      </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A31" s="19"/>
+      <c r="B31" s="19" t="s">
+        <v>5</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>
